--- a/additional_files/MES_PC1_with_FPKM_values.xlsx
+++ b/additional_files/MES_PC1_with_FPKM_values.xlsx
@@ -457,6501 +457,6501 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032394</t>
+          <t>ENSMUSG00000001823</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Igdcc3</t>
+          <t>Hoxd12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>chr9:65141188-65185872</t>
+          <t>chr2:74675012-74677705</t>
         </is>
       </c>
       <c r="D2">
-        <v>138.67</v>
+        <v>0.13436</v>
       </c>
       <c r="E2">
-        <v>100.362</v>
+        <v>0.0195175</v>
       </c>
       <c r="F2">
-        <v>89.9378</v>
+        <v>6.58722</v>
       </c>
       <c r="G2">
-        <v>51.3037</v>
+        <v>6.42987</v>
       </c>
       <c r="H2">
-        <v>4.42878</v>
+        <v>53.5126</v>
       </c>
       <c r="I2">
-        <v>13.4018</v>
+        <v>5.42501</v>
       </c>
       <c r="J2">
-        <v>0.680704</v>
+        <v>2.3396</v>
       </c>
       <c r="K2">
-        <v>1.88373</v>
+        <v>2.51758</v>
       </c>
       <c r="L2">
-        <v>300.355</v>
+        <v>0.100048</v>
       </c>
       <c r="M2">
-        <v>294.417</v>
+        <v>0.118885</v>
       </c>
       <c r="N2">
-        <v>189.801</v>
+        <v>99.5018</v>
       </c>
       <c r="O2">
-        <v>91.221</v>
+        <v>116.608</v>
       </c>
       <c r="P2">
-        <v>1.98391</v>
+        <v>198.664</v>
       </c>
       <c r="Q2">
-        <v>7.50832</v>
+        <v>158.933</v>
       </c>
       <c r="R2">
-        <v>0.47699</v>
+        <v>84.2936</v>
       </c>
       <c r="S2">
-        <v>0.530118</v>
+        <v>148.835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024247</t>
+          <t>ENSMUSG00000001819</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pkdcc</t>
+          <t>Hoxd13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>chr17:83215291-83225070</t>
+          <t>chr2:74668309-74671599</t>
         </is>
       </c>
       <c r="D3">
-        <v>31.2262</v>
+        <v>0.342799</v>
       </c>
       <c r="E3">
-        <v>23.8571</v>
+        <v>0.298775</v>
       </c>
       <c r="F3">
-        <v>5.85786</v>
+        <v>6.94754</v>
       </c>
       <c r="G3">
-        <v>5.3982</v>
+        <v>12.267</v>
       </c>
       <c r="H3">
-        <v>1.34308</v>
+        <v>94.6536</v>
       </c>
       <c r="I3">
-        <v>2.86982</v>
+        <v>13.1634</v>
       </c>
       <c r="J3">
-        <v>0.658094</v>
+        <v>5.61099</v>
       </c>
       <c r="K3">
-        <v>1.00264</v>
+        <v>8.66283</v>
       </c>
       <c r="L3">
-        <v>180.121</v>
+        <v>3.07766</v>
       </c>
       <c r="M3">
-        <v>185.017</v>
+        <v>2.70963</v>
       </c>
       <c r="N3">
-        <v>3.28753</v>
+        <v>129.298</v>
       </c>
       <c r="O3">
-        <v>4.68275</v>
+        <v>265.053</v>
       </c>
       <c r="P3">
-        <v>0.312834</v>
+        <v>318.03</v>
       </c>
       <c r="Q3">
-        <v>0.887964</v>
+        <v>376.63</v>
       </c>
       <c r="R3">
-        <v>0.758733</v>
+        <v>202.223</v>
       </c>
       <c r="S3">
-        <v>0.253939</v>
+        <v>395.838</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001823</t>
+          <t>ENSMUSG00000038203</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hoxd12</t>
+          <t>Hoxa13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>chr2:74675012-74677705</t>
+          <t>chr6:52257693-52260880</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.13436</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0195175</v>
+        <v>0.0206502</v>
       </c>
       <c r="F4">
-        <v>6.58722</v>
+        <v>1.83716</v>
       </c>
       <c r="G4">
-        <v>6.42987</v>
+        <v>5.49464</v>
       </c>
       <c r="H4">
-        <v>53.5126</v>
+        <v>23.3035</v>
       </c>
       <c r="I4">
-        <v>5.42501</v>
+        <v>5.0359</v>
       </c>
       <c r="J4">
-        <v>2.3396</v>
+        <v>2.65795</v>
       </c>
       <c r="K4">
-        <v>2.51758</v>
+        <v>2.13435</v>
       </c>
       <c r="L4">
-        <v>0.100048</v>
+        <v>0.181465</v>
       </c>
       <c r="M4">
-        <v>0.118885</v>
+        <v>0.104821</v>
       </c>
       <c r="N4">
-        <v>99.5018</v>
+        <v>60.7114</v>
       </c>
       <c r="O4">
-        <v>116.608</v>
+        <v>75.9161</v>
       </c>
       <c r="P4">
-        <v>198.664</v>
+        <v>73.99639999999999</v>
       </c>
       <c r="Q4">
-        <v>158.933</v>
+        <v>86.5534</v>
       </c>
       <c r="R4">
-        <v>84.2936</v>
+        <v>95.3287</v>
       </c>
       <c r="S4">
-        <v>148.835</v>
+        <v>82.1747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ENSMUSG00000050966</t>
+          <t>ENSMUSG00000023232</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lin28a</t>
+          <t>Serinc2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>chr4:134003329-134018841</t>
+          <t>chr4:130253494-130279205</t>
         </is>
       </c>
       <c r="D5">
-        <v>88.4691</v>
+        <v>5.9142</v>
       </c>
       <c r="E5">
-        <v>109.108</v>
+        <v>5.24718</v>
       </c>
       <c r="F5">
-        <v>9.85613</v>
+        <v>14.3406</v>
       </c>
       <c r="G5">
-        <v>9.56878</v>
+        <v>10.6472</v>
       </c>
       <c r="H5">
-        <v>1.65143</v>
+        <v>32.8616</v>
       </c>
       <c r="I5">
-        <v>5.36827</v>
+        <v>17.3954</v>
       </c>
       <c r="J5">
-        <v>0.137431</v>
+        <v>32.9574</v>
       </c>
       <c r="K5">
-        <v>1.35302</v>
+        <v>21.4606</v>
       </c>
       <c r="L5">
-        <v>81.07250000000001</v>
+        <v>0.417032</v>
       </c>
       <c r="M5">
-        <v>108.919</v>
+        <v>0.374304</v>
       </c>
       <c r="N5">
-        <v>2.96117</v>
+        <v>15.7344</v>
       </c>
       <c r="O5">
-        <v>2.47942</v>
+        <v>23.8122</v>
       </c>
       <c r="P5">
-        <v>0.0442237</v>
+        <v>74.13200000000001</v>
       </c>
       <c r="Q5">
-        <v>0.08723309999999999</v>
+        <v>46.4085</v>
       </c>
       <c r="R5">
-        <v>0.0104423</v>
+        <v>103.84</v>
       </c>
       <c r="S5">
-        <v>0.0165263</v>
+        <v>73.6506</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001819</t>
+          <t>ENSMUSG00000025927</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hoxd13</t>
+          <t>Tfap2b</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>chr2:74668309-74671599</t>
+          <t>chr1:19208913-19238576</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.342799</v>
+        <v>3.87139</v>
       </c>
       <c r="E6">
-        <v>0.298775</v>
+        <v>5.34811</v>
       </c>
       <c r="F6">
-        <v>6.94754</v>
+        <v>12.8015</v>
       </c>
       <c r="G6">
-        <v>12.267</v>
+        <v>18.0286</v>
       </c>
       <c r="H6">
-        <v>94.6536</v>
+        <v>34.4678</v>
       </c>
       <c r="I6">
-        <v>13.1634</v>
+        <v>25.9787</v>
       </c>
       <c r="J6">
-        <v>5.61099</v>
+        <v>78.06959999999999</v>
       </c>
       <c r="K6">
-        <v>8.66283</v>
+        <v>85.508</v>
       </c>
       <c r="L6">
-        <v>3.07766</v>
+        <v>0.0772258</v>
       </c>
       <c r="M6">
-        <v>2.70963</v>
+        <v>0.0270025</v>
       </c>
       <c r="N6">
-        <v>129.298</v>
+        <v>23.0888</v>
       </c>
       <c r="O6">
-        <v>265.053</v>
+        <v>47.6558</v>
       </c>
       <c r="P6">
-        <v>318.03</v>
+        <v>33.0985</v>
       </c>
       <c r="Q6">
-        <v>376.63</v>
+        <v>50.4932</v>
       </c>
       <c r="R6">
-        <v>202.223</v>
+        <v>67.34350000000001</v>
       </c>
       <c r="S6">
-        <v>395.838</v>
+        <v>53.3115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038203</t>
+          <t>ENSMUSG00000024521</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hoxa13</t>
+          <t>Pmaip1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>chr6:52257693-52260880</t>
+          <t>chr18:66458603-66465550</t>
         </is>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4.50354</v>
       </c>
       <c r="E7">
-        <v>0.0206502</v>
+        <v>3.25229</v>
       </c>
       <c r="F7">
-        <v>1.83716</v>
+        <v>6.25561</v>
       </c>
       <c r="G7">
-        <v>5.49464</v>
+        <v>13.2253</v>
       </c>
       <c r="H7">
-        <v>23.3035</v>
+        <v>29.1052</v>
       </c>
       <c r="I7">
-        <v>5.0359</v>
+        <v>9.981170000000001</v>
       </c>
       <c r="J7">
-        <v>2.65795</v>
+        <v>6.02153</v>
       </c>
       <c r="K7">
-        <v>2.13435</v>
+        <v>5.3341</v>
       </c>
       <c r="L7">
-        <v>0.181465</v>
+        <v>0.205313</v>
       </c>
       <c r="M7">
-        <v>0.104821</v>
+        <v>0.132828</v>
       </c>
       <c r="N7">
-        <v>60.7114</v>
+        <v>42.2897</v>
       </c>
       <c r="O7">
-        <v>75.9161</v>
+        <v>106.368</v>
       </c>
       <c r="P7">
-        <v>73.99639999999999</v>
+        <v>60.4551</v>
       </c>
       <c r="Q7">
-        <v>86.5534</v>
+        <v>119.805</v>
       </c>
       <c r="R7">
-        <v>95.3287</v>
+        <v>15.9764</v>
       </c>
       <c r="S7">
-        <v>82.1747</v>
+        <v>47.1979</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ENSMUSG00000023232</t>
+          <t>ENSMUSG00000029755</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Serinc2</t>
+          <t>Dlx5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>chr4:130253494-130279205</t>
+          <t>chr6:6877804-6882085</t>
         </is>
       </c>
       <c r="D8">
-        <v>5.9142</v>
+        <v>35.1855</v>
       </c>
       <c r="E8">
-        <v>5.24718</v>
+        <v>41.571</v>
       </c>
       <c r="F8">
-        <v>14.3406</v>
+        <v>49.8871</v>
       </c>
       <c r="G8">
-        <v>10.6472</v>
+        <v>52.2845</v>
       </c>
       <c r="H8">
-        <v>32.8616</v>
+        <v>34.206</v>
       </c>
       <c r="I8">
-        <v>17.3954</v>
+        <v>39.0122</v>
       </c>
       <c r="J8">
-        <v>32.9574</v>
+        <v>44.1584</v>
       </c>
       <c r="K8">
-        <v>21.4606</v>
+        <v>41.6116</v>
       </c>
       <c r="L8">
-        <v>0.417032</v>
+        <v>0.203611</v>
       </c>
       <c r="M8">
-        <v>0.374304</v>
+        <v>0.211704</v>
       </c>
       <c r="N8">
-        <v>15.7344</v>
+        <v>7.28291</v>
       </c>
       <c r="O8">
-        <v>23.8122</v>
+        <v>9.691890000000001</v>
       </c>
       <c r="P8">
-        <v>74.13200000000001</v>
+        <v>21.9725</v>
       </c>
       <c r="Q8">
-        <v>46.4085</v>
+        <v>15.1936</v>
       </c>
       <c r="R8">
-        <v>103.84</v>
+        <v>51.6884</v>
       </c>
       <c r="S8">
-        <v>73.6506</v>
+        <v>49.6214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ENSMUSG00000040856</t>
+          <t>ENSMUSG00000075334</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dlk1</t>
+          <t>Rprm</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>chr12:109452848-109463336</t>
+          <t>chr2:54084092-54085552</t>
         </is>
       </c>
       <c r="D9">
-        <v>74.11620000000001</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>58.1046</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>13.9802</v>
+        <v>0.0956727</v>
       </c>
       <c r="G9">
-        <v>8.896000000000001</v>
+        <v>0.345148</v>
       </c>
       <c r="H9">
-        <v>12.2953</v>
+        <v>23.0864</v>
       </c>
       <c r="I9">
-        <v>11.5234</v>
+        <v>0.468833</v>
       </c>
       <c r="J9">
-        <v>2.21918</v>
+        <v>1.39585</v>
       </c>
       <c r="K9">
-        <v>4.63895</v>
+        <v>1.50808</v>
       </c>
       <c r="L9">
-        <v>264.691</v>
+        <v>0.148838</v>
       </c>
       <c r="M9">
-        <v>200.547</v>
+        <v>0.137559</v>
       </c>
       <c r="N9">
-        <v>16.7102</v>
+        <v>1.40576</v>
       </c>
       <c r="O9">
-        <v>11.8507</v>
+        <v>2.65208</v>
       </c>
       <c r="P9">
-        <v>4.57408</v>
+        <v>29.9922</v>
       </c>
       <c r="Q9">
-        <v>5.79796</v>
+        <v>15.7902</v>
       </c>
       <c r="R9">
-        <v>2.48673</v>
+        <v>30.1076</v>
       </c>
       <c r="S9">
-        <v>3.74243</v>
+        <v>26.7406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027210</t>
+          <t>ENSMUSG00000073940</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Meis2</t>
+          <t>Hbb-bt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>chr2:115863063-116065839</t>
+          <t>chr7:103812523-103813996</t>
         </is>
       </c>
       <c r="D10">
-        <v>55.1403</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>57.4022</v>
+        <v>2.60301</v>
       </c>
       <c r="F10">
-        <v>26.6207</v>
+        <v>0.298042</v>
       </c>
       <c r="G10">
-        <v>23.7066</v>
+        <v>0.955744</v>
       </c>
       <c r="H10">
-        <v>18.8114</v>
+        <v>0.200821</v>
       </c>
       <c r="I10">
-        <v>24.7787</v>
+        <v>0.4057</v>
       </c>
       <c r="J10">
-        <v>37.2483</v>
+        <v>1.68664</v>
       </c>
       <c r="K10">
-        <v>40.0421</v>
+        <v>0.0803075</v>
       </c>
       <c r="L10">
-        <v>52.9097</v>
+        <v>1.54554</v>
       </c>
       <c r="M10">
-        <v>69.2923</v>
+        <v>1.49984</v>
       </c>
       <c r="N10">
-        <v>1.08232</v>
+        <v>16.7172</v>
       </c>
       <c r="O10">
-        <v>1.60377</v>
+        <v>21.5152</v>
       </c>
       <c r="P10">
-        <v>0.262043</v>
+        <v>37.6486</v>
       </c>
       <c r="Q10">
-        <v>0.355628</v>
+        <v>39.6651</v>
       </c>
       <c r="R10">
-        <v>0.181918</v>
+        <v>119.953</v>
       </c>
       <c r="S10">
-        <v>0.211259</v>
+        <v>34.2769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025927</t>
+          <t>ENSMUSG00000018474</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tfap2b</t>
+          <t>Chd3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>chr1:19208913-19238576</t>
+          <t>chr11:69343272-69369406</t>
         </is>
       </c>
       <c r="D11">
-        <v>3.87139</v>
+        <v>15.0641</v>
       </c>
       <c r="E11">
-        <v>5.34811</v>
+        <v>17.4379</v>
       </c>
       <c r="F11">
-        <v>12.8015</v>
+        <v>29.4942</v>
       </c>
       <c r="G11">
-        <v>18.0286</v>
+        <v>35.2992</v>
       </c>
       <c r="H11">
-        <v>34.4678</v>
+        <v>90.5838</v>
       </c>
       <c r="I11">
-        <v>25.9787</v>
+        <v>65.8745</v>
       </c>
       <c r="J11">
-        <v>78.06959999999999</v>
+        <v>83.5697</v>
       </c>
       <c r="K11">
-        <v>85.508</v>
+        <v>105.717</v>
       </c>
       <c r="L11">
-        <v>0.0772258</v>
+        <v>4.48923</v>
       </c>
       <c r="M11">
-        <v>0.0270025</v>
+        <v>7.09148</v>
       </c>
       <c r="N11">
-        <v>23.0888</v>
+        <v>47.273</v>
       </c>
       <c r="O11">
-        <v>47.6558</v>
+        <v>53.7425</v>
       </c>
       <c r="P11">
-        <v>33.0985</v>
+        <v>126.492</v>
       </c>
       <c r="Q11">
-        <v>50.4932</v>
+        <v>78.6542</v>
       </c>
       <c r="R11">
-        <v>67.34350000000001</v>
+        <v>145.133</v>
       </c>
       <c r="S11">
-        <v>53.3115</v>
+        <v>182.778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024521</t>
+          <t>ENSMUSG00000061048</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pmaip1</t>
+          <t>Cdh3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>chr18:66458603-66465550</t>
+          <t>chr8:106510890-106557297</t>
         </is>
       </c>
       <c r="D12">
-        <v>4.50354</v>
+        <v>82.01049999999999</v>
       </c>
       <c r="E12">
-        <v>3.25229</v>
+        <v>71.8168</v>
       </c>
       <c r="F12">
-        <v>6.25561</v>
+        <v>144.907</v>
       </c>
       <c r="G12">
-        <v>13.2253</v>
+        <v>129.07</v>
       </c>
       <c r="H12">
-        <v>29.1052</v>
+        <v>135.896</v>
       </c>
       <c r="I12">
-        <v>9.981170000000001</v>
+        <v>151.711</v>
       </c>
       <c r="J12">
-        <v>6.02153</v>
+        <v>129.188</v>
       </c>
       <c r="K12">
-        <v>5.3341</v>
+        <v>135.757</v>
       </c>
       <c r="L12">
-        <v>0.205313</v>
+        <v>5.15501</v>
       </c>
       <c r="M12">
-        <v>0.132828</v>
+        <v>3.75652</v>
       </c>
       <c r="N12">
-        <v>42.2897</v>
+        <v>46.2196</v>
       </c>
       <c r="O12">
-        <v>106.368</v>
+        <v>42.5464</v>
       </c>
       <c r="P12">
-        <v>60.4551</v>
+        <v>93.7396</v>
       </c>
       <c r="Q12">
-        <v>119.805</v>
+        <v>66.98090000000001</v>
       </c>
       <c r="R12">
-        <v>15.9764</v>
+        <v>127.993</v>
       </c>
       <c r="S12">
-        <v>47.1979</v>
+        <v>92.8327</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029755</t>
+          <t>ENSMUSG00000063415</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dlx5</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>chr6:6877804-6882085</t>
+          <t>chr6:84571413-84593908</t>
         </is>
       </c>
       <c r="D13">
-        <v>35.1855</v>
+        <v>79.20910000000001</v>
       </c>
       <c r="E13">
-        <v>41.571</v>
+        <v>67.67619999999999</v>
       </c>
       <c r="F13">
-        <v>49.8871</v>
+        <v>75.29940000000001</v>
       </c>
       <c r="G13">
-        <v>52.2845</v>
+        <v>64.9118</v>
       </c>
       <c r="H13">
-        <v>34.206</v>
+        <v>51.6961</v>
       </c>
       <c r="I13">
-        <v>39.0122</v>
+        <v>30.9712</v>
       </c>
       <c r="J13">
-        <v>44.1584</v>
+        <v>7.01504</v>
       </c>
       <c r="K13">
-        <v>41.6116</v>
+        <v>6.61854</v>
       </c>
       <c r="L13">
-        <v>0.203611</v>
+        <v>5.09486</v>
       </c>
       <c r="M13">
-        <v>0.211704</v>
+        <v>4.49428</v>
       </c>
       <c r="N13">
-        <v>7.28291</v>
+        <v>173.917</v>
       </c>
       <c r="O13">
-        <v>9.691890000000001</v>
+        <v>166.231</v>
       </c>
       <c r="P13">
-        <v>21.9725</v>
+        <v>95.83459999999999</v>
       </c>
       <c r="Q13">
-        <v>15.1936</v>
+        <v>134.194</v>
       </c>
       <c r="R13">
-        <v>51.6884</v>
+        <v>114.246</v>
       </c>
       <c r="S13">
-        <v>49.6214</v>
+        <v>100.693</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ENSMUSG00000063804</t>
+          <t>ENSMUSG00000052516</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lin28b</t>
+          <t>Robo2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>chr10:45376619-45470201</t>
+          <t>chr16:73891838-74411534</t>
         </is>
       </c>
       <c r="D14">
-        <v>20.6884</v>
+        <v>0.618756</v>
       </c>
       <c r="E14">
-        <v>28.9126</v>
+        <v>0.73875</v>
       </c>
       <c r="F14">
-        <v>8.002890000000001</v>
+        <v>3.21941</v>
       </c>
       <c r="G14">
-        <v>9.97095</v>
+        <v>1.87614</v>
       </c>
       <c r="H14">
-        <v>1.71179</v>
+        <v>13.0181</v>
       </c>
       <c r="I14">
-        <v>5.4486</v>
+        <v>3.93487</v>
       </c>
       <c r="J14">
-        <v>0.795668</v>
+        <v>5.04536</v>
       </c>
       <c r="K14">
-        <v>1.80802</v>
+        <v>4.63306</v>
       </c>
       <c r="L14">
-        <v>38.2688</v>
+        <v>1.86568</v>
       </c>
       <c r="M14">
-        <v>62.6452</v>
+        <v>1.79207</v>
       </c>
       <c r="N14">
-        <v>9.1653</v>
+        <v>7.94293</v>
       </c>
       <c r="O14">
-        <v>10.1805</v>
+        <v>8.31672</v>
       </c>
       <c r="P14">
-        <v>1.2984</v>
+        <v>30.9003</v>
       </c>
       <c r="Q14">
-        <v>4.04122</v>
+        <v>13.2509</v>
       </c>
       <c r="R14">
-        <v>0.277789</v>
+        <v>68.5883</v>
       </c>
       <c r="S14">
-        <v>0.922162</v>
+        <v>68.3068</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ENSMUSG00000075334</t>
+          <t>ENSMUSG00000000861</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rprm</t>
+          <t>Bcl11a</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>chr2:54084092-54085552</t>
+          <t>chr11:24078055-24174123</t>
         </is>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1.73311</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1.47691</v>
       </c>
       <c r="F15">
-        <v>0.0956727</v>
+        <v>13.1521</v>
       </c>
       <c r="G15">
-        <v>0.345148</v>
+        <v>14.3365</v>
       </c>
       <c r="H15">
-        <v>23.0864</v>
+        <v>26.5078</v>
       </c>
       <c r="I15">
-        <v>0.468833</v>
+        <v>18.036</v>
       </c>
       <c r="J15">
-        <v>1.39585</v>
+        <v>31.2316</v>
       </c>
       <c r="K15">
-        <v>1.50808</v>
+        <v>25.7235</v>
       </c>
       <c r="L15">
-        <v>0.148838</v>
+        <v>2.3536</v>
       </c>
       <c r="M15">
-        <v>0.137559</v>
+        <v>1.35255</v>
       </c>
       <c r="N15">
-        <v>1.40576</v>
+        <v>26.8385</v>
       </c>
       <c r="O15">
-        <v>2.65208</v>
+        <v>32.2516</v>
       </c>
       <c r="P15">
-        <v>29.9922</v>
+        <v>47.7556</v>
       </c>
       <c r="Q15">
-        <v>15.7902</v>
+        <v>44.098</v>
       </c>
       <c r="R15">
-        <v>30.1076</v>
+        <v>49.5601</v>
       </c>
       <c r="S15">
-        <v>26.7406</v>
+        <v>44.1029</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036030</t>
+          <t>ENSMUSG00000021508</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Prtg</t>
+          <t>Cxcl14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>chr9:72806873-72917291</t>
+          <t>chr13:56288642-56296551</t>
         </is>
       </c>
       <c r="D16">
-        <v>26.2757</v>
+        <v>18.4491</v>
       </c>
       <c r="E16">
-        <v>32.3516</v>
+        <v>20.411</v>
       </c>
       <c r="F16">
-        <v>3.35158</v>
+        <v>83.02970000000001</v>
       </c>
       <c r="G16">
-        <v>3.3969</v>
+        <v>59.0497</v>
       </c>
       <c r="H16">
-        <v>0.37424</v>
+        <v>193.61</v>
       </c>
       <c r="I16">
-        <v>1.29073</v>
+        <v>165.561</v>
       </c>
       <c r="J16">
-        <v>0.137715</v>
+        <v>665.99</v>
       </c>
       <c r="K16">
-        <v>0.499885</v>
+        <v>408.669</v>
       </c>
       <c r="L16">
-        <v>21.1017</v>
+        <v>0.872248</v>
       </c>
       <c r="M16">
-        <v>35.8127</v>
+        <v>0.137832</v>
       </c>
       <c r="N16">
-        <v>2.47714</v>
+        <v>11.2371</v>
       </c>
       <c r="O16">
-        <v>2.4933</v>
+        <v>9.05186</v>
       </c>
       <c r="P16">
-        <v>0.207564</v>
+        <v>17.4452</v>
       </c>
       <c r="Q16">
-        <v>0.648403</v>
+        <v>10.3145</v>
       </c>
       <c r="R16">
-        <v>0.0440101</v>
+        <v>52.4021</v>
       </c>
       <c r="S16">
-        <v>0.183627</v>
+        <v>15.7491</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ENSMUSG00000000690</t>
+          <t>ENSMUSG00000035104</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hoxb6</t>
+          <t>Eva1a</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>chr11:96292475-96301569</t>
+          <t>chr6:82041042-82093099</t>
         </is>
       </c>
       <c r="D17">
-        <v>4.77372</v>
+        <v>0.762498</v>
       </c>
       <c r="E17">
-        <v>3.58135</v>
+        <v>0.835728</v>
       </c>
       <c r="F17">
-        <v>0.105739</v>
+        <v>5.28535</v>
       </c>
       <c r="G17">
-        <v>0.296694</v>
+        <v>5.41029</v>
       </c>
       <c r="H17">
-        <v>0.0534354</v>
+        <v>8.87778</v>
       </c>
       <c r="I17">
-        <v>0.129541</v>
+        <v>5.94497</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.99697</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>4.74536</v>
       </c>
       <c r="L17">
-        <v>22.8737</v>
+        <v>0.326834</v>
       </c>
       <c r="M17">
-        <v>25.1512</v>
+        <v>0.169912</v>
       </c>
       <c r="N17">
-        <v>0.297966</v>
+        <v>3.4709</v>
       </c>
       <c r="O17">
-        <v>0.183196</v>
+        <v>6.24462</v>
       </c>
       <c r="P17">
-        <v>0.0293342</v>
+        <v>16.3972</v>
       </c>
       <c r="Q17">
-        <v>0.0462903</v>
+        <v>11.8017</v>
       </c>
       <c r="R17">
-        <v>0.0277062</v>
+        <v>29.2113</v>
       </c>
       <c r="S17">
-        <v>0.0876977</v>
+        <v>14.6215</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ENSMUSG00000073940</t>
+          <t>ENSMUSG00000052305</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hbb-bt</t>
+          <t>Hbb-bs</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>chr7:103812523-103813996</t>
+          <t>chr7:103826533-103828096</t>
         </is>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.271073</v>
       </c>
       <c r="E18">
-        <v>2.60301</v>
+        <v>10.6993</v>
       </c>
       <c r="F18">
-        <v>0.298042</v>
+        <v>0.222424</v>
       </c>
       <c r="G18">
-        <v>0.955744</v>
+        <v>1.1183</v>
       </c>
       <c r="H18">
-        <v>0.200821</v>
+        <v>0.505811</v>
       </c>
       <c r="I18">
-        <v>0.4057</v>
+        <v>0.544981</v>
       </c>
       <c r="J18">
-        <v>1.68664</v>
+        <v>3.22656</v>
       </c>
       <c r="K18">
-        <v>0.0803075</v>
+        <v>0.179797</v>
       </c>
       <c r="L18">
-        <v>1.54554</v>
+        <v>7.42486</v>
       </c>
       <c r="M18">
-        <v>1.49984</v>
+        <v>4.11522</v>
       </c>
       <c r="N18">
-        <v>16.7172</v>
+        <v>13.3492</v>
       </c>
       <c r="O18">
-        <v>21.5152</v>
+        <v>23.7324</v>
       </c>
       <c r="P18">
-        <v>37.6486</v>
+        <v>92.31659999999999</v>
       </c>
       <c r="Q18">
-        <v>39.6651</v>
+        <v>29.0179</v>
       </c>
       <c r="R18">
-        <v>119.953</v>
+        <v>206.941</v>
       </c>
       <c r="S18">
-        <v>34.2769</v>
+        <v>63.1427</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ENSMUSG00000018474</t>
+          <t>ENSMUSG00000029754</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chd3</t>
+          <t>Dlx6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>chr11:69343272-69369406</t>
+          <t>chr6:6863333-6868568</t>
         </is>
       </c>
       <c r="D19">
-        <v>15.0641</v>
+        <v>9.05481</v>
       </c>
       <c r="E19">
-        <v>17.4379</v>
+        <v>9.82418</v>
       </c>
       <c r="F19">
-        <v>29.4942</v>
+        <v>21.9819</v>
       </c>
       <c r="G19">
-        <v>35.2992</v>
+        <v>29.9191</v>
       </c>
       <c r="H19">
-        <v>90.5838</v>
+        <v>15.731</v>
       </c>
       <c r="I19">
-        <v>65.8745</v>
+        <v>18.5824</v>
       </c>
       <c r="J19">
-        <v>83.5697</v>
+        <v>8.7011</v>
       </c>
       <c r="K19">
-        <v>105.717</v>
+        <v>12.5348</v>
       </c>
       <c r="L19">
-        <v>4.48923</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>7.09148</v>
+        <v>0.045315</v>
       </c>
       <c r="N19">
-        <v>47.273</v>
+        <v>0.755648</v>
       </c>
       <c r="O19">
-        <v>53.7425</v>
+        <v>1.14822</v>
       </c>
       <c r="P19">
-        <v>126.492</v>
+        <v>7.43325</v>
       </c>
       <c r="Q19">
-        <v>78.6542</v>
+        <v>4.69517</v>
       </c>
       <c r="R19">
-        <v>145.133</v>
+        <v>19.7858</v>
       </c>
       <c r="S19">
-        <v>182.778</v>
+        <v>21.6147</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031734</t>
+          <t>ENSMUSG00000026879</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Irx3</t>
+          <t>Gsn</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>chr8:91798524-91802067</t>
+          <t>chr2:35256379-35307892</t>
         </is>
       </c>
       <c r="D20">
-        <v>7.73396</v>
+        <v>1.43609</v>
       </c>
       <c r="E20">
-        <v>6.3474</v>
+        <v>0.474259</v>
       </c>
       <c r="F20">
-        <v>2.19513</v>
+        <v>3.30521</v>
       </c>
       <c r="G20">
-        <v>1.15843</v>
+        <v>2.91715</v>
       </c>
       <c r="H20">
-        <v>1.50632</v>
+        <v>17.3111</v>
       </c>
       <c r="I20">
-        <v>1.49326</v>
+        <v>5.99965</v>
       </c>
       <c r="J20">
-        <v>3.02461</v>
+        <v>13.5511</v>
       </c>
       <c r="K20">
-        <v>2.05834</v>
+        <v>6.04057</v>
       </c>
       <c r="L20">
-        <v>25.8736</v>
+        <v>1.35586</v>
       </c>
       <c r="M20">
-        <v>21.8981</v>
+        <v>1.52731</v>
       </c>
       <c r="N20">
-        <v>0.219328</v>
+        <v>12.3064</v>
       </c>
       <c r="O20">
-        <v>0.0695395</v>
+        <v>26.6948</v>
       </c>
       <c r="P20">
-        <v>0.0890816</v>
+        <v>29.8555</v>
       </c>
       <c r="Q20">
-        <v>0.0702863</v>
+        <v>36.3598</v>
       </c>
       <c r="R20">
-        <v>0.327747</v>
+        <v>60.1016</v>
       </c>
       <c r="S20">
-        <v>0.177546</v>
+        <v>15.6445</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ENSMUSG00000020160</t>
+          <t>ENSMUSG00000001815</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Meis1</t>
+          <t>Evx2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>chr11:18879816-19018985</t>
+          <t>chr2:74652990-74659557</t>
         </is>
       </c>
       <c r="D21">
-        <v>32.6778</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>46.3785</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>17.2448</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>24.6079</v>
+        <v>0.494311</v>
       </c>
       <c r="H21">
-        <v>7.5794</v>
+        <v>3.52861</v>
       </c>
       <c r="I21">
-        <v>18.3379</v>
+        <v>0.462759</v>
       </c>
       <c r="J21">
-        <v>14.6744</v>
+        <v>0.0862183</v>
       </c>
       <c r="K21">
-        <v>19.3862</v>
+        <v>0.538853</v>
       </c>
       <c r="L21">
-        <v>17.4097</v>
+        <v>0.0345667</v>
       </c>
       <c r="M21">
-        <v>25.886</v>
+        <v>0.0767216</v>
       </c>
       <c r="N21">
-        <v>0.677348</v>
+        <v>3.9598</v>
       </c>
       <c r="O21">
-        <v>1.04247</v>
+        <v>13.4831</v>
       </c>
       <c r="P21">
-        <v>0.287169</v>
+        <v>12.908</v>
       </c>
       <c r="Q21">
-        <v>0.229593</v>
+        <v>20.1208</v>
       </c>
       <c r="R21">
-        <v>0.06563140000000001</v>
+        <v>7.81613</v>
       </c>
       <c r="S21">
-        <v>0.201035</v>
+        <v>20.8009</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ENSMUSG00000061048</t>
+          <t>ENSMUSG00000026147</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cdh3</t>
+          <t>Col9a1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>chr8:106510890-106557297</t>
+          <t>chr1:24177609-24252684</t>
         </is>
       </c>
       <c r="D22">
-        <v>82.01049999999999</v>
+        <v>2.28166</v>
       </c>
       <c r="E22">
-        <v>71.8168</v>
+        <v>1.5036</v>
       </c>
       <c r="F22">
-        <v>144.907</v>
+        <v>1.46121</v>
       </c>
       <c r="G22">
-        <v>129.07</v>
+        <v>1.40938</v>
       </c>
       <c r="H22">
-        <v>135.896</v>
+        <v>6.44967</v>
       </c>
       <c r="I22">
-        <v>151.711</v>
+        <v>2.27494</v>
       </c>
       <c r="J22">
-        <v>129.188</v>
+        <v>1.46566</v>
       </c>
       <c r="K22">
-        <v>135.757</v>
+        <v>1.27345</v>
       </c>
       <c r="L22">
-        <v>5.15501</v>
+        <v>3.30324</v>
       </c>
       <c r="M22">
-        <v>3.75652</v>
+        <v>2.659</v>
       </c>
       <c r="N22">
-        <v>46.2196</v>
+        <v>14.485</v>
       </c>
       <c r="O22">
-        <v>42.5464</v>
+        <v>10.7394</v>
       </c>
       <c r="P22">
-        <v>93.7396</v>
+        <v>40.2614</v>
       </c>
       <c r="Q22">
-        <v>66.98090000000001</v>
+        <v>18.7309</v>
       </c>
       <c r="R22">
-        <v>127.993</v>
+        <v>64.13420000000001</v>
       </c>
       <c r="S22">
-        <v>92.8327</v>
+        <v>62.4737</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ENSMUSG00000063415</t>
+          <t>ENSMUSG00000027570</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cyp26b1</t>
+          <t>Col9a3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>chr6:84571413-84593908</t>
+          <t>chr2:180597789-180622189</t>
         </is>
       </c>
       <c r="D23">
-        <v>79.20910000000001</v>
+        <v>4.15715</v>
       </c>
       <c r="E23">
-        <v>67.67619999999999</v>
+        <v>2.8152</v>
       </c>
       <c r="F23">
-        <v>75.29940000000001</v>
+        <v>1.98774</v>
       </c>
       <c r="G23">
-        <v>64.9118</v>
+        <v>1.73126</v>
       </c>
       <c r="H23">
-        <v>51.6961</v>
+        <v>3.18715</v>
       </c>
       <c r="I23">
-        <v>30.9712</v>
+        <v>2.64563</v>
       </c>
       <c r="J23">
-        <v>7.01504</v>
+        <v>3.46318</v>
       </c>
       <c r="K23">
-        <v>6.61854</v>
+        <v>3.23343</v>
       </c>
       <c r="L23">
-        <v>5.09486</v>
+        <v>0.152705</v>
       </c>
       <c r="M23">
-        <v>4.49428</v>
+        <v>0.158774</v>
       </c>
       <c r="N23">
-        <v>173.917</v>
+        <v>0.434668</v>
       </c>
       <c r="O23">
-        <v>166.231</v>
+        <v>0.5739649999999999</v>
       </c>
       <c r="P23">
-        <v>95.83459999999999</v>
+        <v>5.85486</v>
       </c>
       <c r="Q23">
-        <v>134.194</v>
+        <v>1.82634</v>
       </c>
       <c r="R23">
-        <v>114.246</v>
+        <v>25.1161</v>
       </c>
       <c r="S23">
-        <v>100.693</v>
+        <v>19.7628</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001661</t>
+          <t>ENSMUSG00000038259</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hoxc6</t>
+          <t>Gdf5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>chr15:103009572-103011881</t>
+          <t>chr2:155941022-155945367</t>
         </is>
       </c>
       <c r="D24">
-        <v>31.9256</v>
+        <v>0.146753</v>
       </c>
       <c r="E24">
-        <v>28.154</v>
+        <v>0.298449</v>
       </c>
       <c r="F24">
-        <v>18.4653</v>
+        <v>0.120416</v>
       </c>
       <c r="G24">
-        <v>19.2656</v>
+        <v>0.337875</v>
       </c>
       <c r="H24">
-        <v>5.87123</v>
+        <v>0.699801</v>
       </c>
       <c r="I24">
-        <v>11.4011</v>
+        <v>0.196694</v>
       </c>
       <c r="J24">
-        <v>3.09365</v>
+        <v>0.271512</v>
       </c>
       <c r="K24">
-        <v>6.28481</v>
+        <v>0.219011</v>
       </c>
       <c r="L24">
-        <v>17.1121</v>
+        <v>0.0312218</v>
       </c>
       <c r="M24">
-        <v>18.6101</v>
+        <v>0.0432837</v>
       </c>
       <c r="N24">
-        <v>1.5827</v>
+        <v>1.6239</v>
       </c>
       <c r="O24">
-        <v>0.57401</v>
+        <v>1.01704</v>
       </c>
       <c r="P24">
-        <v>0.147063</v>
+        <v>5.06102</v>
       </c>
       <c r="Q24">
-        <v>0.116035</v>
+        <v>2.63579</v>
       </c>
       <c r="R24">
-        <v>0.0694505</v>
+        <v>31.2996</v>
       </c>
       <c r="S24">
-        <v>0.036638</v>
+        <v>10.9857</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ENSMUSG00000052516</t>
+          <t>ENSMUSG00000033965</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Robo2</t>
+          <t>Slc16a2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>chr16:73891838-74411534</t>
+          <t>chrX:103697413-103821983</t>
         </is>
       </c>
       <c r="D25">
-        <v>0.618756</v>
+        <v>1.70152</v>
       </c>
       <c r="E25">
-        <v>0.73875</v>
+        <v>1.3222</v>
       </c>
       <c r="F25">
-        <v>3.21941</v>
+        <v>4.05388</v>
       </c>
       <c r="G25">
-        <v>1.87614</v>
+        <v>4.90863</v>
       </c>
       <c r="H25">
-        <v>13.0181</v>
+        <v>21.3109</v>
       </c>
       <c r="I25">
-        <v>3.93487</v>
+        <v>8.54522</v>
       </c>
       <c r="J25">
-        <v>5.04536</v>
+        <v>19.785</v>
       </c>
       <c r="K25">
-        <v>4.63306</v>
+        <v>16.7383</v>
       </c>
       <c r="L25">
-        <v>1.86568</v>
+        <v>1.24737</v>
       </c>
       <c r="M25">
-        <v>1.79207</v>
+        <v>0.74975</v>
       </c>
       <c r="N25">
-        <v>7.94293</v>
+        <v>26.9235</v>
       </c>
       <c r="O25">
-        <v>8.31672</v>
+        <v>21.7115</v>
       </c>
       <c r="P25">
-        <v>30.9003</v>
+        <v>23.1367</v>
       </c>
       <c r="Q25">
-        <v>13.2509</v>
+        <v>18.837</v>
       </c>
       <c r="R25">
-        <v>68.5883</v>
+        <v>29.945</v>
       </c>
       <c r="S25">
-        <v>68.3068</v>
+        <v>22.5728</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024619</t>
+          <t>ENSMUSG00000001911</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cdx1</t>
+          <t>Nfix</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>chr18:61018861-61036199</t>
+          <t>chr8:84704711-84800344</t>
         </is>
       </c>
       <c r="D26">
-        <v>14.8347</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>13.6785</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.83582</v>
+        <v>0.04767</v>
       </c>
       <c r="G26">
-        <v>0.671888</v>
+        <v>0.085129</v>
       </c>
       <c r="H26">
-        <v>0.141177</v>
+        <v>0.9402779999999999</v>
       </c>
       <c r="I26">
-        <v>0.0325951</v>
+        <v>0.215404</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.28673</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.491571</v>
       </c>
       <c r="L26">
-        <v>22.2891</v>
+        <v>0.0503031</v>
       </c>
       <c r="M26">
-        <v>18.1613</v>
+        <v>0.0355956</v>
       </c>
       <c r="N26">
-        <v>1.18887</v>
+        <v>0.282386</v>
       </c>
       <c r="O26">
-        <v>0.553149</v>
+        <v>0.455266</v>
       </c>
       <c r="P26">
-        <v>0.177147</v>
+        <v>4.32397</v>
       </c>
       <c r="Q26">
-        <v>0.209658</v>
+        <v>1.57362</v>
       </c>
       <c r="R26">
-        <v>0.188231</v>
+        <v>32.954</v>
       </c>
       <c r="S26">
-        <v>0.231699</v>
+        <v>11.5577</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022485</t>
+          <t>ENSMUSG00000030513</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hoxc5</t>
+          <t>Pcsk6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>chr15:103013814-103017429</t>
+          <t>chr7:65861733-66050386</t>
         </is>
       </c>
       <c r="D27">
-        <v>35.8173</v>
+        <v>4.49802</v>
       </c>
       <c r="E27">
-        <v>35.972</v>
+        <v>4.56975</v>
       </c>
       <c r="F27">
-        <v>8.195510000000001</v>
+        <v>17.8968</v>
       </c>
       <c r="G27">
-        <v>8.830550000000001</v>
+        <v>14.9319</v>
       </c>
       <c r="H27">
-        <v>1.58179</v>
+        <v>15.5322</v>
       </c>
       <c r="I27">
-        <v>4.64449</v>
+        <v>12.3753</v>
       </c>
       <c r="J27">
-        <v>0.570443</v>
+        <v>18.5451</v>
       </c>
       <c r="K27">
-        <v>2.04733</v>
+        <v>7.82698</v>
       </c>
       <c r="L27">
-        <v>16.9873</v>
+        <v>3.33726</v>
       </c>
       <c r="M27">
-        <v>17.4521</v>
+        <v>2.81641</v>
       </c>
       <c r="N27">
-        <v>0.173135</v>
+        <v>6.51726</v>
       </c>
       <c r="O27">
-        <v>0.206981</v>
+        <v>9.133979999999999</v>
       </c>
       <c r="P27">
-        <v>0.119315</v>
+        <v>35.818</v>
       </c>
       <c r="Q27">
-        <v>0.06276130000000001</v>
+        <v>23.6253</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>80.10299999999999</v>
       </c>
       <c r="S27">
-        <v>0.0198169</v>
+        <v>36.4259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ENSMUSG00000000861</t>
+          <t>ENSMUSG00000021994</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bcl11a</t>
+          <t>Wnt5a</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>chr11:24078055-24174123</t>
+          <t>chr14:28504749-28527448</t>
         </is>
       </c>
       <c r="D28">
-        <v>1.73311</v>
+        <v>82.16500000000001</v>
       </c>
       <c r="E28">
-        <v>1.47691</v>
+        <v>67.1301</v>
       </c>
       <c r="F28">
-        <v>13.1521</v>
+        <v>142.957</v>
       </c>
       <c r="G28">
-        <v>14.3365</v>
+        <v>154.5</v>
       </c>
       <c r="H28">
-        <v>26.5078</v>
+        <v>109.111</v>
       </c>
       <c r="I28">
-        <v>18.036</v>
+        <v>132.227</v>
       </c>
       <c r="J28">
-        <v>31.2316</v>
+        <v>73.4708</v>
       </c>
       <c r="K28">
-        <v>25.7235</v>
+        <v>82.0763</v>
       </c>
       <c r="L28">
-        <v>2.3536</v>
+        <v>11.3176</v>
       </c>
       <c r="M28">
-        <v>1.35255</v>
+        <v>13.9652</v>
       </c>
       <c r="N28">
-        <v>26.8385</v>
+        <v>81.42870000000001</v>
       </c>
       <c r="O28">
-        <v>32.2516</v>
+        <v>102.251</v>
       </c>
       <c r="P28">
-        <v>47.7556</v>
+        <v>107.488</v>
       </c>
       <c r="Q28">
-        <v>44.098</v>
+        <v>126.219</v>
       </c>
       <c r="R28">
-        <v>49.5601</v>
+        <v>208.751</v>
       </c>
       <c r="S28">
-        <v>44.1029</v>
+        <v>190.61</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ENSMUSG00000048534</t>
+          <t>ENSMUSG00000024899</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Jaml</t>
+          <t>Papss2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>chr9:45079182-45108534</t>
+          <t>chr19:32620004-32667187</t>
         </is>
       </c>
       <c r="D29">
-        <v>2.5347</v>
+        <v>0.421487</v>
       </c>
       <c r="E29">
-        <v>1.59933</v>
+        <v>0.353752</v>
       </c>
       <c r="F29">
-        <v>0.149474</v>
+        <v>1.74843</v>
       </c>
       <c r="G29">
-        <v>0.12984</v>
+        <v>1.86379</v>
       </c>
       <c r="H29">
-        <v>0.043517</v>
+        <v>6.34036</v>
       </c>
       <c r="I29">
-        <v>0.0334749</v>
+        <v>2.65199</v>
       </c>
       <c r="J29">
-        <v>0.0150562</v>
+        <v>3.99586</v>
       </c>
       <c r="K29">
-        <v>0.103565</v>
+        <v>4.00707</v>
       </c>
       <c r="L29">
-        <v>18.2248</v>
+        <v>0.408503</v>
       </c>
       <c r="M29">
-        <v>18.0148</v>
+        <v>0.234815</v>
       </c>
       <c r="N29">
-        <v>1.18025</v>
+        <v>2.28944</v>
       </c>
       <c r="O29">
-        <v>0.569751</v>
+        <v>3.2955</v>
       </c>
       <c r="P29">
-        <v>0.216243</v>
+        <v>9.317299999999999</v>
       </c>
       <c r="Q29">
-        <v>0.0745434</v>
+        <v>6.98141</v>
       </c>
       <c r="R29">
-        <v>0.142085</v>
+        <v>19.4531</v>
       </c>
       <c r="S29">
-        <v>0.0679849</v>
+        <v>17.72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ENSMUSG00000021508</t>
+          <t>ENSMUSG00000029661</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cxcl14</t>
+          <t>Col1a2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>chr13:56288642-56296551</t>
+          <t>chr6:4504813-4541544</t>
         </is>
       </c>
       <c r="D30">
-        <v>18.4491</v>
+        <v>106.853</v>
       </c>
       <c r="E30">
-        <v>20.411</v>
+        <v>46.215</v>
       </c>
       <c r="F30">
-        <v>83.02970000000001</v>
+        <v>140.751</v>
       </c>
       <c r="G30">
-        <v>59.0497</v>
+        <v>95.1674</v>
       </c>
       <c r="H30">
-        <v>193.61</v>
+        <v>212.443</v>
       </c>
       <c r="I30">
-        <v>165.561</v>
+        <v>130.574</v>
       </c>
       <c r="J30">
-        <v>665.99</v>
+        <v>54.7676</v>
       </c>
       <c r="K30">
-        <v>408.669</v>
+        <v>74.1052</v>
       </c>
       <c r="L30">
-        <v>0.872248</v>
+        <v>22.926</v>
       </c>
       <c r="M30">
-        <v>0.137832</v>
+        <v>13.8291</v>
       </c>
       <c r="N30">
-        <v>11.2371</v>
+        <v>129.827</v>
       </c>
       <c r="O30">
-        <v>9.05186</v>
+        <v>76.67789999999999</v>
       </c>
       <c r="P30">
-        <v>17.4452</v>
+        <v>163.835</v>
       </c>
       <c r="Q30">
-        <v>10.3145</v>
+        <v>91.5607</v>
       </c>
       <c r="R30">
-        <v>52.4021</v>
+        <v>427.509</v>
       </c>
       <c r="S30">
-        <v>15.7491</v>
+        <v>184.694</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ENSMUSG00000035104</t>
+          <t>ENSMUSG00000025491</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Eva1a</t>
+          <t>Ifitm1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>chr6:82041042-82093099</t>
+          <t>chr7:140967220-140969825</t>
         </is>
       </c>
       <c r="D31">
-        <v>0.762498</v>
+        <v>4.01078</v>
       </c>
       <c r="E31">
-        <v>0.835728</v>
+        <v>3.19732</v>
       </c>
       <c r="F31">
-        <v>5.28535</v>
+        <v>3.96432</v>
       </c>
       <c r="G31">
-        <v>5.41029</v>
+        <v>4.56822</v>
       </c>
       <c r="H31">
-        <v>8.87778</v>
+        <v>25.0042</v>
       </c>
       <c r="I31">
-        <v>5.94497</v>
+        <v>11.108</v>
       </c>
       <c r="J31">
-        <v>7.99697</v>
+        <v>32.501</v>
       </c>
       <c r="K31">
-        <v>4.74536</v>
+        <v>20.4755</v>
       </c>
       <c r="L31">
-        <v>0.326834</v>
+        <v>2.74763</v>
       </c>
       <c r="M31">
-        <v>0.169912</v>
+        <v>4.03466</v>
       </c>
       <c r="N31">
-        <v>3.4709</v>
+        <v>24.6751</v>
       </c>
       <c r="O31">
-        <v>6.24462</v>
+        <v>28.0532</v>
       </c>
       <c r="P31">
-        <v>16.3972</v>
+        <v>64.7383</v>
       </c>
       <c r="Q31">
-        <v>11.8017</v>
+        <v>40.419</v>
       </c>
       <c r="R31">
-        <v>29.2113</v>
+        <v>51.0394</v>
       </c>
       <c r="S31">
-        <v>14.6215</v>
+        <v>40.6295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ENSMUSG00000052305</t>
+          <t>ENSMUSG00000022197</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hbb-bs</t>
+          <t>Pdzd2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>chr7:103826533-103828096</t>
+          <t>chr15:12359710-12592556</t>
         </is>
       </c>
       <c r="D32">
-        <v>0.271073</v>
+        <v>0.547408</v>
       </c>
       <c r="E32">
-        <v>10.6993</v>
+        <v>0.452973</v>
       </c>
       <c r="F32">
-        <v>0.222424</v>
+        <v>1.61839</v>
       </c>
       <c r="G32">
-        <v>1.1183</v>
+        <v>2.26597</v>
       </c>
       <c r="H32">
-        <v>0.505811</v>
+        <v>5.30078</v>
       </c>
       <c r="I32">
-        <v>0.544981</v>
+        <v>2.41662</v>
       </c>
       <c r="J32">
-        <v>3.22656</v>
+        <v>1.86624</v>
       </c>
       <c r="K32">
-        <v>0.179797</v>
+        <v>2.19696</v>
       </c>
       <c r="L32">
-        <v>7.42486</v>
+        <v>0.283268</v>
       </c>
       <c r="M32">
-        <v>4.11522</v>
+        <v>0.568079</v>
       </c>
       <c r="N32">
-        <v>13.3492</v>
+        <v>7.01312</v>
       </c>
       <c r="O32">
-        <v>23.7324</v>
+        <v>12.4781</v>
       </c>
       <c r="P32">
-        <v>92.31659999999999</v>
+        <v>11.9642</v>
       </c>
       <c r="Q32">
-        <v>29.0179</v>
+        <v>19.7405</v>
       </c>
       <c r="R32">
-        <v>206.941</v>
+        <v>13.9169</v>
       </c>
       <c r="S32">
-        <v>63.1427</v>
+        <v>17.9904</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029754</t>
+          <t>ENSMUSG00000032243</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dlx6</t>
+          <t>Itga11</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>chr6:6863333-6868568</t>
+          <t>chr9:62677825-62783982</t>
         </is>
       </c>
       <c r="D33">
-        <v>9.05481</v>
+        <v>0.06851839999999999</v>
       </c>
       <c r="E33">
-        <v>9.82418</v>
+        <v>0.109485</v>
       </c>
       <c r="F33">
-        <v>21.9819</v>
+        <v>0.0562214</v>
       </c>
       <c r="G33">
-        <v>29.9191</v>
+        <v>0.270432</v>
       </c>
       <c r="H33">
-        <v>15.731</v>
+        <v>4.04866</v>
       </c>
       <c r="I33">
-        <v>18.5824</v>
+        <v>0.390301</v>
       </c>
       <c r="J33">
-        <v>8.7011</v>
+        <v>0.626381</v>
       </c>
       <c r="K33">
-        <v>12.5348</v>
+        <v>0.5567220000000001</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>0.145773</v>
       </c>
       <c r="M33">
-        <v>0.045315</v>
+        <v>0.18188</v>
       </c>
       <c r="N33">
-        <v>0.755648</v>
+        <v>2.49523</v>
       </c>
       <c r="O33">
-        <v>1.14822</v>
+        <v>4.00578</v>
       </c>
       <c r="P33">
-        <v>7.43325</v>
+        <v>10.6294</v>
       </c>
       <c r="Q33">
-        <v>4.69517</v>
+        <v>7.81455</v>
       </c>
       <c r="R33">
-        <v>19.7858</v>
+        <v>13.0153</v>
       </c>
       <c r="S33">
-        <v>21.6147</v>
+        <v>12.31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038700</t>
+          <t>ENSMUSG00000027820</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hoxb5</t>
+          <t>Mme</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>chr11:96303511-96306120</t>
+          <t>chr3:63241536-63386030</t>
         </is>
       </c>
       <c r="D34">
-        <v>6.87224</v>
+        <v>1.9371</v>
       </c>
       <c r="E34">
-        <v>4.3585</v>
+        <v>1.40515</v>
       </c>
       <c r="F34">
-        <v>0.368554</v>
+        <v>2.62032</v>
       </c>
       <c r="G34">
-        <v>0.561384</v>
+        <v>3.37912</v>
       </c>
       <c r="H34">
-        <v>0.03725</v>
+        <v>5.70393</v>
       </c>
       <c r="I34">
-        <v>0.120404</v>
+        <v>4.14859</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1.49987</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2.24965</v>
       </c>
       <c r="L34">
-        <v>15.7483</v>
+        <v>0.709981</v>
       </c>
       <c r="M34">
-        <v>17.805</v>
+        <v>0.51562</v>
       </c>
       <c r="N34">
-        <v>0.237385</v>
+        <v>4.65046</v>
       </c>
       <c r="O34">
-        <v>0.127706</v>
+        <v>4.99107</v>
       </c>
       <c r="P34">
-        <v>0.204491</v>
+        <v>13.8367</v>
       </c>
       <c r="Q34">
-        <v>0.225885</v>
+        <v>7.77877</v>
       </c>
       <c r="R34">
-        <v>0.115885</v>
+        <v>16.5789</v>
       </c>
       <c r="S34">
-        <v>0.0917013</v>
+        <v>23.0413</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ENSMUSG00000063972</t>
+          <t>ENSMUSG00000067860</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nr6a1</t>
+          <t>Zic3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>chr2:38723369-38927688</t>
+          <t>chrX:58022699-58041736</t>
         </is>
       </c>
       <c r="D35">
-        <v>19.8387</v>
+        <v>0.043627</v>
       </c>
       <c r="E35">
-        <v>27.4237</v>
+        <v>0.0331923</v>
       </c>
       <c r="F35">
-        <v>3.25816</v>
+        <v>1.02628</v>
       </c>
       <c r="G35">
-        <v>3.62896</v>
+        <v>3.23905</v>
       </c>
       <c r="H35">
-        <v>0.384514</v>
+        <v>7.82111</v>
       </c>
       <c r="I35">
-        <v>1.41518</v>
+        <v>1.09779</v>
       </c>
       <c r="J35">
-        <v>0.5296</v>
+        <v>0.657188</v>
       </c>
       <c r="K35">
-        <v>1.41332</v>
+        <v>0.84209</v>
       </c>
       <c r="L35">
-        <v>12.3095</v>
+        <v>0.499631</v>
       </c>
       <c r="M35">
-        <v>22.2005</v>
+        <v>0.5848719999999999</v>
       </c>
       <c r="N35">
-        <v>0.53178</v>
+        <v>25.8134</v>
       </c>
       <c r="O35">
-        <v>0.621201</v>
+        <v>23.8183</v>
       </c>
       <c r="P35">
-        <v>0.105493</v>
+        <v>15.7473</v>
       </c>
       <c r="Q35">
-        <v>0.332953</v>
+        <v>24.6389</v>
       </c>
       <c r="R35">
-        <v>0.151829</v>
+        <v>13.4268</v>
       </c>
       <c r="S35">
-        <v>0.18726</v>
+        <v>16.3146</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ENSMUSG00000075394</t>
+          <t>ENSMUSG00000042499</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hoxc4</t>
+          <t>Hoxd11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>chr15:103018933-103036852</t>
+          <t>chr2:74682322-74684168</t>
         </is>
       </c>
       <c r="D36">
-        <v>10.8934</v>
+        <v>0.153226</v>
       </c>
       <c r="E36">
-        <v>10.5144</v>
+        <v>0.0890319</v>
       </c>
       <c r="F36">
-        <v>3.98769</v>
+        <v>7.48073</v>
       </c>
       <c r="G36">
-        <v>6.33169</v>
+        <v>3.22539</v>
       </c>
       <c r="H36">
-        <v>3.30718</v>
+        <v>16.4241</v>
       </c>
       <c r="I36">
-        <v>4.46672</v>
+        <v>2.77249</v>
       </c>
       <c r="J36">
-        <v>1.97496</v>
+        <v>0.433569</v>
       </c>
       <c r="K36">
-        <v>4.6428</v>
+        <v>0.6606030000000001</v>
       </c>
       <c r="L36">
-        <v>12.9773</v>
+        <v>2.83609</v>
       </c>
       <c r="M36">
-        <v>16.2716</v>
+        <v>1.44617</v>
       </c>
       <c r="N36">
-        <v>0.231339</v>
+        <v>65.3913</v>
       </c>
       <c r="O36">
-        <v>0.413338</v>
+        <v>48.0302</v>
       </c>
       <c r="P36">
-        <v>0.0781664</v>
+        <v>44.2968</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>42.3815</v>
       </c>
       <c r="R36">
-        <v>0.0690249</v>
+        <v>20.6227</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>38.7381</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ENSMUSG00000026879</t>
+          <t>ENSMUSG00000037206</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Gsn</t>
+          <t>Islr</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>chr2:35256379-35307892</t>
+          <t>chr9:58156267-58204306</t>
         </is>
       </c>
       <c r="D37">
-        <v>1.43609</v>
+        <v>0.450999</v>
       </c>
       <c r="E37">
-        <v>0.474259</v>
+        <v>0.214406</v>
       </c>
       <c r="F37">
-        <v>3.30521</v>
+        <v>3.80804</v>
       </c>
       <c r="G37">
-        <v>2.91715</v>
+        <v>1.9149</v>
       </c>
       <c r="H37">
-        <v>17.3111</v>
+        <v>6.19897</v>
       </c>
       <c r="I37">
-        <v>5.99965</v>
+        <v>6.55717</v>
       </c>
       <c r="J37">
-        <v>13.5511</v>
+        <v>4.79036</v>
       </c>
       <c r="K37">
-        <v>6.04057</v>
+        <v>2.69901</v>
       </c>
       <c r="L37">
-        <v>1.35586</v>
+        <v>0.802499</v>
       </c>
       <c r="M37">
-        <v>1.52731</v>
+        <v>0.639189</v>
       </c>
       <c r="N37">
-        <v>12.3064</v>
+        <v>6.75129</v>
       </c>
       <c r="O37">
-        <v>26.6948</v>
+        <v>4.67183</v>
       </c>
       <c r="P37">
-        <v>29.8555</v>
+        <v>14.2471</v>
       </c>
       <c r="Q37">
-        <v>36.3598</v>
+        <v>7.1077</v>
       </c>
       <c r="R37">
-        <v>60.1016</v>
+        <v>25.595</v>
       </c>
       <c r="S37">
-        <v>15.6445</v>
+        <v>15.9368</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ENSMUSG00000030905</t>
+          <t>ENSMUSG00000026394</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Crym</t>
+          <t>Atp6v1g3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>chr7:120186379-120202111</t>
+          <t>chr1:138273737-138289462</t>
         </is>
       </c>
       <c r="D38">
-        <v>2.21563</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1.85956</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.302998</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.32388</v>
+        <v>0.148359</v>
       </c>
       <c r="H38">
-        <v>0.535923</v>
+        <v>3.49764</v>
       </c>
       <c r="I38">
-        <v>0.0412447</v>
+        <v>0.453429</v>
       </c>
       <c r="J38">
-        <v>0.0535841</v>
+        <v>0.25527</v>
       </c>
       <c r="K38">
-        <v>0.122465</v>
+        <v>0.418859</v>
       </c>
       <c r="L38">
-        <v>21.2118</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>18.4064</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>1.24008</v>
+        <v>0.78967</v>
       </c>
       <c r="O38">
-        <v>1.0499</v>
+        <v>1.18629</v>
       </c>
       <c r="P38">
-        <v>0.532371</v>
+        <v>8.3786</v>
       </c>
       <c r="Q38">
-        <v>0.132647</v>
+        <v>6.25439</v>
       </c>
       <c r="R38">
-        <v>0.502825</v>
+        <v>6.96319</v>
       </c>
       <c r="S38">
-        <v>0.586367</v>
+        <v>12.7084</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001815</t>
+          <t>ENSMUSG00000027358</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Evx2</t>
+          <t>Bmp2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>chr2:74652990-74659557</t>
+          <t>chr2:133552158-133562885</t>
         </is>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>7.68567</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>5.41178</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>13.6735</v>
       </c>
       <c r="G39">
-        <v>0.494311</v>
+        <v>10.1901</v>
       </c>
       <c r="H39">
-        <v>3.52861</v>
+        <v>4.9839</v>
       </c>
       <c r="I39">
-        <v>0.462759</v>
+        <v>6.51443</v>
       </c>
       <c r="J39">
-        <v>0.0862183</v>
+        <v>4.01282</v>
       </c>
       <c r="K39">
-        <v>0.538853</v>
+        <v>2.49328</v>
       </c>
       <c r="L39">
-        <v>0.0345667</v>
+        <v>0.254692</v>
       </c>
       <c r="M39">
-        <v>0.0767216</v>
+        <v>0.451952</v>
       </c>
       <c r="N39">
-        <v>3.9598</v>
+        <v>2.37259</v>
       </c>
       <c r="O39">
-        <v>13.4831</v>
+        <v>3.08034</v>
       </c>
       <c r="P39">
-        <v>12.908</v>
+        <v>8.41513</v>
       </c>
       <c r="Q39">
-        <v>20.1208</v>
+        <v>8.308199999999999</v>
       </c>
       <c r="R39">
-        <v>7.81613</v>
+        <v>14.3725</v>
       </c>
       <c r="S39">
-        <v>20.8009</v>
+        <v>11.813</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ENSMUSG00000043342</t>
+          <t>ENSMUSG00000021359</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hoxd9</t>
+          <t>Tfap2a</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>chr2:74697726-74700208</t>
+          <t>chr13:40715301-40738376</t>
         </is>
       </c>
       <c r="D40">
-        <v>11.0381</v>
+        <v>34.1664</v>
       </c>
       <c r="E40">
-        <v>5.25599</v>
+        <v>35.0746</v>
       </c>
       <c r="F40">
-        <v>3.33511</v>
+        <v>42.8233</v>
       </c>
       <c r="G40">
-        <v>3.56495</v>
+        <v>43.7833</v>
       </c>
       <c r="H40">
-        <v>3.56909</v>
+        <v>38.5597</v>
       </c>
       <c r="I40">
-        <v>0.507391</v>
+        <v>45.62</v>
       </c>
       <c r="J40">
-        <v>0.173471</v>
+        <v>53.6449</v>
       </c>
       <c r="K40">
-        <v>0.105723</v>
+        <v>55.5327</v>
       </c>
       <c r="L40">
-        <v>75.40170000000001</v>
+        <v>1.50292</v>
       </c>
       <c r="M40">
-        <v>82.36539999999999</v>
+        <v>0.931292</v>
       </c>
       <c r="N40">
-        <v>31.6691</v>
+        <v>18.5531</v>
       </c>
       <c r="O40">
-        <v>23.9057</v>
+        <v>19.4501</v>
       </c>
       <c r="P40">
-        <v>6.27708</v>
+        <v>13.7985</v>
       </c>
       <c r="Q40">
-        <v>9.47602</v>
+        <v>15.6217</v>
       </c>
       <c r="R40">
-        <v>3.52981</v>
+        <v>35.0918</v>
       </c>
       <c r="S40">
-        <v>6.15585</v>
+        <v>15.0727</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ENSMUSG00000026147</t>
+          <t>ENSMUSG00000028565</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Col9a1</t>
+          <t>Nfia</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>chr1:24177609-24252684</t>
+          <t>chr4:97772733-98118874</t>
         </is>
       </c>
       <c r="D41">
-        <v>2.28166</v>
+        <v>0.353119</v>
       </c>
       <c r="E41">
-        <v>1.5036</v>
+        <v>0.259703</v>
       </c>
       <c r="F41">
-        <v>1.46121</v>
+        <v>1.1993</v>
       </c>
       <c r="G41">
-        <v>1.40938</v>
+        <v>2.04034</v>
       </c>
       <c r="H41">
-        <v>6.44967</v>
+        <v>4.23586</v>
       </c>
       <c r="I41">
-        <v>2.27494</v>
+        <v>2.56923</v>
       </c>
       <c r="J41">
-        <v>1.46566</v>
+        <v>2.98124</v>
       </c>
       <c r="K41">
-        <v>1.27345</v>
+        <v>2.7357</v>
       </c>
       <c r="L41">
-        <v>3.30324</v>
+        <v>0.378536</v>
       </c>
       <c r="M41">
-        <v>2.659</v>
+        <v>1.28731</v>
       </c>
       <c r="N41">
-        <v>14.485</v>
+        <v>5.69589</v>
       </c>
       <c r="O41">
-        <v>10.7394</v>
+        <v>10.4396</v>
       </c>
       <c r="P41">
-        <v>40.2614</v>
+        <v>12.3868</v>
       </c>
       <c r="Q41">
-        <v>18.7309</v>
+        <v>12.1212</v>
       </c>
       <c r="R41">
-        <v>64.13420000000001</v>
+        <v>17.1351</v>
       </c>
       <c r="S41">
-        <v>62.4737</v>
+        <v>18.2461</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ENSMUSG00000056648</t>
+          <t>ENSMUSG00000074622</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hoxb8</t>
+          <t>Mafb</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>chr11:96281904-96285315</t>
+          <t>chr2:160363702-160367065</t>
         </is>
       </c>
       <c r="D42">
-        <v>4.49072</v>
+        <v>1.51859</v>
       </c>
       <c r="E42">
-        <v>2.38922</v>
+        <v>1.35298</v>
       </c>
       <c r="F42">
-        <v>0.305653</v>
+        <v>5.48262</v>
       </c>
       <c r="G42">
-        <v>0.716456</v>
+        <v>4.89482</v>
       </c>
       <c r="H42">
-        <v>0.107156</v>
+        <v>8.41691</v>
       </c>
       <c r="I42">
-        <v>0.10824</v>
+        <v>5.12236</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>6.94132</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>6.02669</v>
       </c>
       <c r="L42">
-        <v>15.1911</v>
+        <v>1.12001</v>
       </c>
       <c r="M42">
-        <v>16.3677</v>
+        <v>0.597194</v>
       </c>
       <c r="N42">
-        <v>0.429254</v>
+        <v>2.67525</v>
       </c>
       <c r="O42">
-        <v>0.256504</v>
+        <v>2.1768</v>
       </c>
       <c r="P42">
-        <v>0.325334</v>
+        <v>9.725199999999999</v>
       </c>
       <c r="Q42">
-        <v>0.208866</v>
+        <v>5.38225</v>
       </c>
       <c r="R42">
-        <v>0.333364</v>
+        <v>30.3425</v>
       </c>
       <c r="S42">
-        <v>0.199274</v>
+        <v>13.7276</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027570</t>
+          <t>ENSMUSG00000054452</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Col9a3</t>
+          <t>Aes</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>chr2:180597789-180622189</t>
+          <t>chr10:81559493-81566362</t>
         </is>
       </c>
       <c r="D43">
-        <v>4.15715</v>
+        <v>105.325</v>
       </c>
       <c r="E43">
-        <v>2.8152</v>
+        <v>75.4302</v>
       </c>
       <c r="F43">
-        <v>1.98774</v>
+        <v>175.865</v>
       </c>
       <c r="G43">
-        <v>1.73126</v>
+        <v>120.949</v>
       </c>
       <c r="H43">
-        <v>3.18715</v>
+        <v>178.373</v>
       </c>
       <c r="I43">
-        <v>2.64563</v>
+        <v>137.57</v>
       </c>
       <c r="J43">
-        <v>3.46318</v>
+        <v>187.867</v>
       </c>
       <c r="K43">
-        <v>3.23343</v>
+        <v>130.437</v>
       </c>
       <c r="L43">
-        <v>0.152705</v>
+        <v>19.7385</v>
       </c>
       <c r="M43">
-        <v>0.158774</v>
+        <v>10.3194</v>
       </c>
       <c r="N43">
-        <v>0.434668</v>
+        <v>83.13030000000001</v>
       </c>
       <c r="O43">
-        <v>0.5739649999999999</v>
+        <v>69.8909</v>
       </c>
       <c r="P43">
-        <v>5.85486</v>
+        <v>143.085</v>
       </c>
       <c r="Q43">
-        <v>1.82634</v>
+        <v>85.0732</v>
       </c>
       <c r="R43">
-        <v>25.1161</v>
+        <v>177.607</v>
       </c>
       <c r="S43">
-        <v>19.7628</v>
+        <v>114.782</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038259</t>
+          <t>ENSMUSG00000054934</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gdf5</t>
+          <t>Kcnmb4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>chr2:155941022-155945367</t>
+          <t>chr10:116417860-116473878</t>
         </is>
       </c>
       <c r="D44">
-        <v>0.146753</v>
+        <v>4.66991</v>
       </c>
       <c r="E44">
-        <v>0.298449</v>
+        <v>4.45007</v>
       </c>
       <c r="F44">
-        <v>0.120416</v>
+        <v>5.92653</v>
       </c>
       <c r="G44">
-        <v>0.337875</v>
+        <v>5.28369</v>
       </c>
       <c r="H44">
-        <v>0.699801</v>
+        <v>14.6135</v>
       </c>
       <c r="I44">
-        <v>0.196694</v>
+        <v>8.34548</v>
       </c>
       <c r="J44">
-        <v>0.271512</v>
+        <v>9.053290000000001</v>
       </c>
       <c r="K44">
-        <v>0.219011</v>
+        <v>7.59907</v>
       </c>
       <c r="L44">
-        <v>0.0312218</v>
+        <v>3.28525</v>
       </c>
       <c r="M44">
-        <v>0.0432837</v>
+        <v>2.24049</v>
       </c>
       <c r="N44">
-        <v>1.6239</v>
+        <v>5.57369</v>
       </c>
       <c r="O44">
-        <v>1.01704</v>
+        <v>5.5765</v>
       </c>
       <c r="P44">
-        <v>5.06102</v>
+        <v>31.8059</v>
       </c>
       <c r="Q44">
-        <v>2.63579</v>
+        <v>14.5383</v>
       </c>
       <c r="R44">
-        <v>31.2996</v>
+        <v>30.5226</v>
       </c>
       <c r="S44">
-        <v>10.9857</v>
+        <v>40.043</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ENSMUSG00000033965</t>
+          <t>ENSMUSG00000019647</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Slc16a2</t>
+          <t>Sema6a</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>chrX:103697413-103821983</t>
+          <t>chr18:47235597-47368868</t>
         </is>
       </c>
       <c r="D45">
-        <v>1.70152</v>
+        <v>12.9132</v>
       </c>
       <c r="E45">
-        <v>1.3222</v>
+        <v>16.8326</v>
       </c>
       <c r="F45">
-        <v>4.05388</v>
+        <v>14.1527</v>
       </c>
       <c r="G45">
-        <v>4.90863</v>
+        <v>16.9085</v>
       </c>
       <c r="H45">
-        <v>21.3109</v>
+        <v>13.6336</v>
       </c>
       <c r="I45">
-        <v>8.54522</v>
+        <v>17.2264</v>
       </c>
       <c r="J45">
-        <v>19.785</v>
+        <v>12.0617</v>
       </c>
       <c r="K45">
-        <v>16.7383</v>
+        <v>16.8644</v>
       </c>
       <c r="L45">
-        <v>1.24737</v>
+        <v>1.69177</v>
       </c>
       <c r="M45">
-        <v>0.74975</v>
+        <v>2.35274</v>
       </c>
       <c r="N45">
-        <v>26.9235</v>
+        <v>3.63521</v>
       </c>
       <c r="O45">
-        <v>21.7115</v>
+        <v>4.57103</v>
       </c>
       <c r="P45">
-        <v>23.1367</v>
+        <v>13.0303</v>
       </c>
       <c r="Q45">
-        <v>18.837</v>
+        <v>10.203</v>
       </c>
       <c r="R45">
-        <v>29.945</v>
+        <v>36.5357</v>
       </c>
       <c r="S45">
-        <v>22.5728</v>
+        <v>34.2951</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001911</t>
+          <t>ENSMUSG00000029810</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nfix</t>
+          <t>Tmem176b</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>chr8:84704711-84800344</t>
+          <t>chr6:48833817-48841496</t>
         </is>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>8.59625</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>4.88855</v>
       </c>
       <c r="F46">
-        <v>0.04767</v>
+        <v>14.9407</v>
       </c>
       <c r="G46">
-        <v>0.085129</v>
+        <v>12.3417</v>
       </c>
       <c r="H46">
-        <v>0.9402779999999999</v>
+        <v>29.2513</v>
       </c>
       <c r="I46">
-        <v>0.215404</v>
+        <v>18.0046</v>
       </c>
       <c r="J46">
-        <v>1.28673</v>
+        <v>41.5252</v>
       </c>
       <c r="K46">
-        <v>0.491571</v>
+        <v>25.2238</v>
       </c>
       <c r="L46">
-        <v>0.0503031</v>
+        <v>4.50297</v>
       </c>
       <c r="M46">
-        <v>0.0355956</v>
+        <v>3.77814</v>
       </c>
       <c r="N46">
-        <v>0.282386</v>
+        <v>17.0081</v>
       </c>
       <c r="O46">
-        <v>0.455266</v>
+        <v>14.1078</v>
       </c>
       <c r="P46">
-        <v>4.32397</v>
+        <v>38.3088</v>
       </c>
       <c r="Q46">
-        <v>1.57362</v>
+        <v>17.9409</v>
       </c>
       <c r="R46">
-        <v>32.954</v>
+        <v>69.0468</v>
       </c>
       <c r="S46">
-        <v>11.5577</v>
+        <v>38.0641</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ENSMUSG00000030513</t>
+          <t>ENSMUSG00000072825</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pcsk6</t>
+          <t>Cep170b</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>chr7:65861733-66050386</t>
+          <t>chr12:112720454-112746592</t>
         </is>
       </c>
       <c r="D47">
-        <v>4.49802</v>
+        <v>35.0076</v>
       </c>
       <c r="E47">
-        <v>4.56975</v>
+        <v>30.2956</v>
       </c>
       <c r="F47">
-        <v>17.8968</v>
+        <v>36.3237</v>
       </c>
       <c r="G47">
-        <v>14.9319</v>
+        <v>36.6507</v>
       </c>
       <c r="H47">
-        <v>15.5322</v>
+        <v>32.8048</v>
       </c>
       <c r="I47">
-        <v>12.3753</v>
+        <v>36.572</v>
       </c>
       <c r="J47">
-        <v>18.5451</v>
+        <v>40.6906</v>
       </c>
       <c r="K47">
-        <v>7.82698</v>
+        <v>36.2499</v>
       </c>
       <c r="L47">
-        <v>3.33726</v>
+        <v>1.20447</v>
       </c>
       <c r="M47">
-        <v>2.81641</v>
+        <v>1.04303</v>
       </c>
       <c r="N47">
-        <v>6.51726</v>
+        <v>9.574579999999999</v>
       </c>
       <c r="O47">
-        <v>9.133979999999999</v>
+        <v>10.2339</v>
       </c>
       <c r="P47">
-        <v>35.818</v>
+        <v>16.5632</v>
       </c>
       <c r="Q47">
-        <v>23.6253</v>
+        <v>12.5001</v>
       </c>
       <c r="R47">
-        <v>80.10299999999999</v>
+        <v>19.215</v>
       </c>
       <c r="S47">
-        <v>36.4259</v>
+        <v>18.0236</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ENSMUSG00000021994</t>
+          <t>ENSMUSG00000005503</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Wnt5a</t>
+          <t>Evx1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>chr14:28504749-28527448</t>
+          <t>chr6:52313497-52318378</t>
         </is>
       </c>
       <c r="D48">
-        <v>82.16500000000001</v>
+        <v>0.0295853</v>
       </c>
       <c r="E48">
-        <v>67.1301</v>
+        <v>0.0515726</v>
       </c>
       <c r="F48">
-        <v>142.957</v>
+        <v>2.18485</v>
       </c>
       <c r="G48">
-        <v>154.5</v>
+        <v>2.7674</v>
       </c>
       <c r="H48">
-        <v>109.111</v>
+        <v>7.41521</v>
       </c>
       <c r="I48">
-        <v>132.227</v>
+        <v>0.951685</v>
       </c>
       <c r="J48">
-        <v>73.4708</v>
+        <v>0.675785</v>
       </c>
       <c r="K48">
-        <v>82.0763</v>
+        <v>0.726063</v>
       </c>
       <c r="L48">
-        <v>11.3176</v>
+        <v>0.17624</v>
       </c>
       <c r="M48">
-        <v>13.9652</v>
+        <v>0.219982</v>
       </c>
       <c r="N48">
-        <v>81.42870000000001</v>
+        <v>23.419</v>
       </c>
       <c r="O48">
-        <v>102.251</v>
+        <v>20.3562</v>
       </c>
       <c r="P48">
-        <v>107.488</v>
+        <v>13.5475</v>
       </c>
       <c r="Q48">
-        <v>126.219</v>
+        <v>17.3058</v>
       </c>
       <c r="R48">
-        <v>208.751</v>
+        <v>8.805400000000001</v>
       </c>
       <c r="S48">
-        <v>190.61</v>
+        <v>7.00976</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024899</t>
+          <t>ENSMUSG00000032289</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Papss2</t>
+          <t>Thsd4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>chr19:32620004-32667187</t>
+          <t>chr9:59966930-60522046</t>
         </is>
       </c>
       <c r="D49">
-        <v>0.421487</v>
+        <v>7.66432</v>
       </c>
       <c r="E49">
-        <v>0.353752</v>
+        <v>8.45506</v>
       </c>
       <c r="F49">
-        <v>1.74843</v>
+        <v>4.66234</v>
       </c>
       <c r="G49">
-        <v>1.86379</v>
+        <v>4.51465</v>
       </c>
       <c r="H49">
-        <v>6.34036</v>
+        <v>8.829750000000001</v>
       </c>
       <c r="I49">
-        <v>2.65199</v>
+        <v>4.78059</v>
       </c>
       <c r="J49">
-        <v>3.99586</v>
+        <v>7.69124</v>
       </c>
       <c r="K49">
-        <v>4.00707</v>
+        <v>5.06719</v>
       </c>
       <c r="L49">
-        <v>0.408503</v>
+        <v>2.58893</v>
       </c>
       <c r="M49">
-        <v>0.234815</v>
+        <v>2.09295</v>
       </c>
       <c r="N49">
-        <v>2.28944</v>
+        <v>4.50268</v>
       </c>
       <c r="O49">
-        <v>3.2955</v>
+        <v>7.01494</v>
       </c>
       <c r="P49">
-        <v>9.317299999999999</v>
+        <v>20.6164</v>
       </c>
       <c r="Q49">
-        <v>6.98141</v>
+        <v>19.7397</v>
       </c>
       <c r="R49">
-        <v>19.4531</v>
+        <v>35.6559</v>
       </c>
       <c r="S49">
-        <v>17.72</v>
+        <v>23.1167</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027102</t>
+          <t>ENSMUSG00000022261</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hoxd8</t>
+          <t>Sdc2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>chr2:74704614-74707933</t>
+          <t>chr15:32920722-33034935</t>
         </is>
       </c>
       <c r="D50">
-        <v>3.44766</v>
+        <v>3.45101</v>
       </c>
       <c r="E50">
-        <v>3.06085</v>
+        <v>4.05249</v>
       </c>
       <c r="F50">
-        <v>0.821981</v>
+        <v>5.4257</v>
       </c>
       <c r="G50">
-        <v>2.0271</v>
+        <v>5.50858</v>
       </c>
       <c r="H50">
-        <v>1.44704</v>
+        <v>19.0131</v>
       </c>
       <c r="I50">
-        <v>0.108285</v>
+        <v>6.38825</v>
       </c>
       <c r="J50">
-        <v>0.0422391</v>
+        <v>8.351990000000001</v>
       </c>
       <c r="K50">
-        <v>0.0428672</v>
+        <v>6.49878</v>
       </c>
       <c r="L50">
-        <v>28.8658</v>
+        <v>4.02528</v>
       </c>
       <c r="M50">
-        <v>35.1691</v>
+        <v>3.16031</v>
       </c>
       <c r="N50">
-        <v>13.3237</v>
+        <v>11.9651</v>
       </c>
       <c r="O50">
-        <v>13.833</v>
+        <v>11.2871</v>
       </c>
       <c r="P50">
-        <v>2.31559</v>
+        <v>25.1162</v>
       </c>
       <c r="Q50">
-        <v>4.98381</v>
+        <v>18.6035</v>
       </c>
       <c r="R50">
-        <v>1.12649</v>
+        <v>58.7038</v>
       </c>
       <c r="S50">
-        <v>1.81268</v>
+        <v>37.2807</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029661</t>
+          <t>ENSMUSG00000001870</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Col1a2</t>
+          <t>Ltbp1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>chr6:4504813-4541544</t>
+          <t>chr17:75005567-75391767</t>
         </is>
       </c>
       <c r="D51">
-        <v>106.853</v>
+        <v>8.63843</v>
       </c>
       <c r="E51">
-        <v>46.215</v>
+        <v>5.82285</v>
       </c>
       <c r="F51">
-        <v>140.751</v>
+        <v>10.4465</v>
       </c>
       <c r="G51">
-        <v>95.1674</v>
+        <v>11.0067</v>
       </c>
       <c r="H51">
-        <v>212.443</v>
+        <v>35.8271</v>
       </c>
       <c r="I51">
-        <v>130.574</v>
+        <v>16.5026</v>
       </c>
       <c r="J51">
-        <v>54.7676</v>
+        <v>19.9352</v>
       </c>
       <c r="K51">
-        <v>74.1052</v>
+        <v>17.3478</v>
       </c>
       <c r="L51">
-        <v>22.926</v>
+        <v>4.59816</v>
       </c>
       <c r="M51">
-        <v>13.8291</v>
+        <v>3.33388</v>
       </c>
       <c r="N51">
-        <v>129.827</v>
+        <v>13.9523</v>
       </c>
       <c r="O51">
-        <v>76.67789999999999</v>
+        <v>31.0206</v>
       </c>
       <c r="P51">
-        <v>163.835</v>
+        <v>44.9294</v>
       </c>
       <c r="Q51">
-        <v>91.5607</v>
+        <v>46.6111</v>
       </c>
       <c r="R51">
-        <v>427.509</v>
+        <v>38.2832</v>
       </c>
       <c r="S51">
-        <v>184.694</v>
+        <v>33.5048</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ENSMUSG00000048763</t>
+          <t>ENSMUSG00000032394</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hoxb3</t>
+          <t>Igdcc3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>chr11:96323325-96347930</t>
+          <t>chr9:65141188-65185872</t>
         </is>
       </c>
       <c r="D52">
-        <v>3.86924</v>
+        <v>138.67</v>
       </c>
       <c r="E52">
-        <v>4.35456</v>
+        <v>100.362</v>
       </c>
       <c r="F52">
-        <v>0.591132</v>
+        <v>89.9378</v>
       </c>
       <c r="G52">
-        <v>1.64483</v>
+        <v>51.3037</v>
       </c>
       <c r="H52">
-        <v>0.506502</v>
+        <v>4.42878</v>
       </c>
       <c r="I52">
-        <v>0.9365250000000001</v>
+        <v>13.4018</v>
       </c>
       <c r="J52">
-        <v>0.687355</v>
+        <v>0.680704</v>
       </c>
       <c r="K52">
-        <v>0.513257</v>
+        <v>1.88373</v>
       </c>
       <c r="L52">
-        <v>9.24597</v>
+        <v>300.355</v>
       </c>
       <c r="M52">
-        <v>16.661</v>
+        <v>294.417</v>
       </c>
       <c r="N52">
-        <v>0.246815</v>
+        <v>189.801</v>
       </c>
       <c r="O52">
-        <v>0.246573</v>
+        <v>91.221</v>
       </c>
       <c r="P52">
-        <v>0.219245</v>
+        <v>1.98391</v>
       </c>
       <c r="Q52">
-        <v>0.103877</v>
+        <v>7.50832</v>
       </c>
       <c r="R52">
-        <v>0.0459007</v>
+        <v>0.47699</v>
       </c>
       <c r="S52">
-        <v>0.165487</v>
+        <v>0.530118</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025491</t>
+          <t>ENSMUSG00000024247</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ifitm1</t>
+          <t>Pkdcc</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>chr7:140967220-140969825</t>
+          <t>chr17:83215291-83225070</t>
         </is>
       </c>
       <c r="D53">
-        <v>4.01078</v>
+        <v>31.2262</v>
       </c>
       <c r="E53">
-        <v>3.19732</v>
+        <v>23.8571</v>
       </c>
       <c r="F53">
-        <v>3.96432</v>
+        <v>5.85786</v>
       </c>
       <c r="G53">
-        <v>4.56822</v>
+        <v>5.3982</v>
       </c>
       <c r="H53">
-        <v>25.0042</v>
+        <v>1.34308</v>
       </c>
       <c r="I53">
-        <v>11.108</v>
+        <v>2.86982</v>
       </c>
       <c r="J53">
-        <v>32.501</v>
+        <v>0.658094</v>
       </c>
       <c r="K53">
-        <v>20.4755</v>
+        <v>1.00264</v>
       </c>
       <c r="L53">
-        <v>2.74763</v>
+        <v>180.121</v>
       </c>
       <c r="M53">
-        <v>4.03466</v>
+        <v>185.017</v>
       </c>
       <c r="N53">
-        <v>24.6751</v>
+        <v>3.28753</v>
       </c>
       <c r="O53">
-        <v>28.0532</v>
+        <v>4.68275</v>
       </c>
       <c r="P53">
-        <v>64.7383</v>
+        <v>0.312834</v>
       </c>
       <c r="Q53">
-        <v>40.419</v>
+        <v>0.887964</v>
       </c>
       <c r="R53">
-        <v>51.0394</v>
+        <v>0.758733</v>
       </c>
       <c r="S53">
-        <v>40.6295</v>
+        <v>0.253939</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022197</t>
+          <t>ENSMUSG00000050966</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pdzd2</t>
+          <t>Lin28a</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>chr15:12359710-12592556</t>
+          <t>chr4:134003329-134018841</t>
         </is>
       </c>
       <c r="D54">
-        <v>0.547408</v>
+        <v>88.4691</v>
       </c>
       <c r="E54">
-        <v>0.452973</v>
+        <v>109.108</v>
       </c>
       <c r="F54">
-        <v>1.61839</v>
+        <v>9.85613</v>
       </c>
       <c r="G54">
-        <v>2.26597</v>
+        <v>9.56878</v>
       </c>
       <c r="H54">
-        <v>5.30078</v>
+        <v>1.65143</v>
       </c>
       <c r="I54">
-        <v>2.41662</v>
+        <v>5.36827</v>
       </c>
       <c r="J54">
-        <v>1.86624</v>
+        <v>0.137431</v>
       </c>
       <c r="K54">
-        <v>2.19696</v>
+        <v>1.35302</v>
       </c>
       <c r="L54">
-        <v>0.283268</v>
+        <v>81.07250000000001</v>
       </c>
       <c r="M54">
-        <v>0.568079</v>
+        <v>108.919</v>
       </c>
       <c r="N54">
-        <v>7.01312</v>
+        <v>2.96117</v>
       </c>
       <c r="O54">
-        <v>12.4781</v>
+        <v>2.47942</v>
       </c>
       <c r="P54">
-        <v>11.9642</v>
+        <v>0.0442237</v>
       </c>
       <c r="Q54">
-        <v>19.7405</v>
+        <v>0.08723309999999999</v>
       </c>
       <c r="R54">
-        <v>13.9169</v>
+        <v>0.0104423</v>
       </c>
       <c r="S54">
-        <v>17.9904</v>
+        <v>0.0165263</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032243</t>
+          <t>ENSMUSG00000040856</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Itga11</t>
+          <t>Dlk1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>chr9:62677825-62783982</t>
+          <t>chr12:109452848-109463336</t>
         </is>
       </c>
       <c r="D55">
-        <v>0.06851839999999999</v>
+        <v>74.11620000000001</v>
       </c>
       <c r="E55">
-        <v>0.109485</v>
+        <v>58.1046</v>
       </c>
       <c r="F55">
-        <v>0.0562214</v>
+        <v>13.9802</v>
       </c>
       <c r="G55">
-        <v>0.270432</v>
+        <v>8.896000000000001</v>
       </c>
       <c r="H55">
-        <v>4.04866</v>
+        <v>12.2953</v>
       </c>
       <c r="I55">
-        <v>0.390301</v>
+        <v>11.5234</v>
       </c>
       <c r="J55">
-        <v>0.626381</v>
+        <v>2.21918</v>
       </c>
       <c r="K55">
-        <v>0.5567220000000001</v>
+        <v>4.63895</v>
       </c>
       <c r="L55">
-        <v>0.145773</v>
+        <v>264.691</v>
       </c>
       <c r="M55">
-        <v>0.18188</v>
+        <v>200.547</v>
       </c>
       <c r="N55">
-        <v>2.49523</v>
+        <v>16.7102</v>
       </c>
       <c r="O55">
-        <v>4.00578</v>
+        <v>11.8507</v>
       </c>
       <c r="P55">
-        <v>10.6294</v>
+        <v>4.57408</v>
       </c>
       <c r="Q55">
-        <v>7.81455</v>
+        <v>5.79796</v>
       </c>
       <c r="R55">
-        <v>13.0153</v>
+        <v>2.48673</v>
       </c>
       <c r="S55">
-        <v>12.31</v>
+        <v>3.74243</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027820</t>
+          <t>ENSMUSG00000027210</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mme</t>
+          <t>Meis2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>chr3:63241536-63386030</t>
+          <t>chr2:115863063-116065839</t>
         </is>
       </c>
       <c r="D56">
-        <v>1.9371</v>
+        <v>55.1403</v>
       </c>
       <c r="E56">
-        <v>1.40515</v>
+        <v>57.4022</v>
       </c>
       <c r="F56">
-        <v>2.62032</v>
+        <v>26.6207</v>
       </c>
       <c r="G56">
-        <v>3.37912</v>
+        <v>23.7066</v>
       </c>
       <c r="H56">
-        <v>5.70393</v>
+        <v>18.8114</v>
       </c>
       <c r="I56">
-        <v>4.14859</v>
+        <v>24.7787</v>
       </c>
       <c r="J56">
-        <v>1.49987</v>
+        <v>37.2483</v>
       </c>
       <c r="K56">
-        <v>2.24965</v>
+        <v>40.0421</v>
       </c>
       <c r="L56">
-        <v>0.709981</v>
+        <v>52.9097</v>
       </c>
       <c r="M56">
-        <v>0.51562</v>
+        <v>69.2923</v>
       </c>
       <c r="N56">
-        <v>4.65046</v>
+        <v>1.08232</v>
       </c>
       <c r="O56">
-        <v>4.99107</v>
+        <v>1.60377</v>
       </c>
       <c r="P56">
-        <v>13.8367</v>
+        <v>0.262043</v>
       </c>
       <c r="Q56">
-        <v>7.77877</v>
+        <v>0.355628</v>
       </c>
       <c r="R56">
-        <v>16.5789</v>
+        <v>0.181918</v>
       </c>
       <c r="S56">
-        <v>23.0413</v>
+        <v>0.211259</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ENSMUSG00000115956</t>
+          <t>ENSMUSG00000063804</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Hoxd4</t>
+          <t>Lin28b</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>chr2:74721977-74729160</t>
+          <t>chr10:45376619-45470201</t>
         </is>
       </c>
       <c r="D57">
-        <v>2.57001</v>
+        <v>20.6884</v>
       </c>
       <c r="E57">
-        <v>4.3177</v>
+        <v>28.9126</v>
       </c>
       <c r="F57">
-        <v>0.109177</v>
+        <v>8.002890000000001</v>
       </c>
       <c r="G57">
-        <v>1.77233</v>
+        <v>9.97095</v>
       </c>
       <c r="H57">
-        <v>0.0944961</v>
+        <v>1.71179</v>
       </c>
       <c r="I57">
-        <v>0.194651</v>
+        <v>5.4486</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>0.795668</v>
       </c>
       <c r="K57">
-        <v>0.0755768</v>
+        <v>1.80802</v>
       </c>
       <c r="L57">
-        <v>7.99798</v>
+        <v>38.2688</v>
       </c>
       <c r="M57">
-        <v>21.3744</v>
+        <v>62.6452</v>
       </c>
       <c r="N57">
-        <v>1.61446</v>
+        <v>9.1653</v>
       </c>
       <c r="O57">
-        <v>6.31189</v>
+        <v>10.1805</v>
       </c>
       <c r="P57">
-        <v>0.111677</v>
+        <v>1.2984</v>
       </c>
       <c r="Q57">
-        <v>1.892</v>
+        <v>4.04122</v>
       </c>
       <c r="R57">
-        <v>0.100471</v>
+        <v>0.277789</v>
       </c>
       <c r="S57">
-        <v>0.555554</v>
+        <v>0.922162</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ENSMUSG00000020875</t>
+          <t>ENSMUSG00000036030</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Hoxb9</t>
+          <t>Prtg</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>chr11:96271456-96276595</t>
+          <t>chr9:72806873-72917291</t>
         </is>
       </c>
       <c r="D58">
-        <v>3.26209</v>
+        <v>26.2757</v>
       </c>
       <c r="E58">
-        <v>3.69652</v>
+        <v>32.3516</v>
       </c>
       <c r="F58">
-        <v>1.16966</v>
+        <v>3.35158</v>
       </c>
       <c r="G58">
-        <v>0.66626</v>
+        <v>3.3969</v>
       </c>
       <c r="H58">
-        <v>0.846047</v>
+        <v>0.37424</v>
       </c>
       <c r="I58">
-        <v>0.251393</v>
+        <v>1.29073</v>
       </c>
       <c r="J58">
-        <v>0.0816499</v>
+        <v>0.137715</v>
       </c>
       <c r="K58">
-        <v>0.0877339</v>
+        <v>0.499885</v>
       </c>
       <c r="L58">
-        <v>15.0729</v>
+        <v>21.1017</v>
       </c>
       <c r="M58">
-        <v>19.8265</v>
+        <v>35.8127</v>
       </c>
       <c r="N58">
-        <v>0.404916</v>
+        <v>2.47714</v>
       </c>
       <c r="O58">
-        <v>0.74659</v>
+        <v>2.4933</v>
       </c>
       <c r="P58">
-        <v>0.478195</v>
+        <v>0.207564</v>
       </c>
       <c r="Q58">
-        <v>0.565955</v>
+        <v>0.648403</v>
       </c>
       <c r="R58">
-        <v>0.661354</v>
+        <v>0.0440101</v>
       </c>
       <c r="S58">
-        <v>0.969144</v>
+        <v>0.183627</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ENSMUSG00000067860</t>
+          <t>ENSMUSG00000000690</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Zic3</t>
+          <t>Hoxb6</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>chrX:58022699-58041736</t>
+          <t>chr11:96292475-96301569</t>
         </is>
       </c>
       <c r="D59">
-        <v>0.043627</v>
+        <v>4.77372</v>
       </c>
       <c r="E59">
-        <v>0.0331923</v>
+        <v>3.58135</v>
       </c>
       <c r="F59">
-        <v>1.02628</v>
+        <v>0.105739</v>
       </c>
       <c r="G59">
-        <v>3.23905</v>
+        <v>0.296694</v>
       </c>
       <c r="H59">
-        <v>7.82111</v>
+        <v>0.0534354</v>
       </c>
       <c r="I59">
-        <v>1.09779</v>
+        <v>0.129541</v>
       </c>
       <c r="J59">
-        <v>0.657188</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>0.84209</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>0.499631</v>
+        <v>22.8737</v>
       </c>
       <c r="M59">
-        <v>0.5848719999999999</v>
+        <v>25.1512</v>
       </c>
       <c r="N59">
-        <v>25.8134</v>
+        <v>0.297966</v>
       </c>
       <c r="O59">
-        <v>23.8183</v>
+        <v>0.183196</v>
       </c>
       <c r="P59">
-        <v>15.7473</v>
+        <v>0.0293342</v>
       </c>
       <c r="Q59">
-        <v>24.6389</v>
+        <v>0.0462903</v>
       </c>
       <c r="R59">
-        <v>13.4268</v>
+        <v>0.0277062</v>
       </c>
       <c r="S59">
-        <v>16.3146</v>
+        <v>0.0876977</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032852</t>
+          <t>ENSMUSG00000031734</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Rspo4</t>
+          <t>Irx3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>chr2:151842926-151874668</t>
+          <t>chr8:91798524-91802067</t>
         </is>
       </c>
       <c r="D60">
-        <v>5.70797</v>
+        <v>7.73396</v>
       </c>
       <c r="E60">
-        <v>2.69084</v>
+        <v>6.3474</v>
       </c>
       <c r="F60">
-        <v>1.41391</v>
+        <v>2.19513</v>
       </c>
       <c r="G60">
-        <v>2.05449</v>
+        <v>1.15843</v>
       </c>
       <c r="H60">
-        <v>1.77142</v>
+        <v>1.50632</v>
       </c>
       <c r="I60">
-        <v>0.144348</v>
+        <v>1.49326</v>
       </c>
       <c r="J60">
-        <v>0.375066</v>
+        <v>3.02461</v>
       </c>
       <c r="K60">
-        <v>0.0952445</v>
+        <v>2.05834</v>
       </c>
       <c r="L60">
-        <v>40.8609</v>
+        <v>25.8736</v>
       </c>
       <c r="M60">
-        <v>34.4962</v>
+        <v>21.8981</v>
       </c>
       <c r="N60">
-        <v>23.7515</v>
+        <v>0.219328</v>
       </c>
       <c r="O60">
-        <v>13.0902</v>
+        <v>0.0695395</v>
       </c>
       <c r="P60">
-        <v>3.82444</v>
+        <v>0.0890816</v>
       </c>
       <c r="Q60">
-        <v>4.53921</v>
+        <v>0.0702863</v>
       </c>
       <c r="R60">
-        <v>2.50074</v>
+        <v>0.327747</v>
       </c>
       <c r="S60">
-        <v>2.2476</v>
+        <v>0.177546</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ENSMUSG00000042499</t>
+          <t>ENSMUSG00000020160</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hoxd11</t>
+          <t>Meis1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>chr2:74682322-74684168</t>
+          <t>chr11:18879816-19018985</t>
         </is>
       </c>
       <c r="D61">
-        <v>0.153226</v>
+        <v>32.6778</v>
       </c>
       <c r="E61">
-        <v>0.0890319</v>
+        <v>46.3785</v>
       </c>
       <c r="F61">
-        <v>7.48073</v>
+        <v>17.2448</v>
       </c>
       <c r="G61">
-        <v>3.22539</v>
+        <v>24.6079</v>
       </c>
       <c r="H61">
-        <v>16.4241</v>
+        <v>7.5794</v>
       </c>
       <c r="I61">
-        <v>2.77249</v>
+        <v>18.3379</v>
       </c>
       <c r="J61">
-        <v>0.433569</v>
+        <v>14.6744</v>
       </c>
       <c r="K61">
-        <v>0.6606030000000001</v>
+        <v>19.3862</v>
       </c>
       <c r="L61">
-        <v>2.83609</v>
+        <v>17.4097</v>
       </c>
       <c r="M61">
-        <v>1.44617</v>
+        <v>25.886</v>
       </c>
       <c r="N61">
-        <v>65.3913</v>
+        <v>0.677348</v>
       </c>
       <c r="O61">
-        <v>48.0302</v>
+        <v>1.04247</v>
       </c>
       <c r="P61">
-        <v>44.2968</v>
+        <v>0.287169</v>
       </c>
       <c r="Q61">
-        <v>42.3815</v>
+        <v>0.229593</v>
       </c>
       <c r="R61">
-        <v>20.6227</v>
+        <v>0.06563140000000001</v>
       </c>
       <c r="S61">
-        <v>38.7381</v>
+        <v>0.201035</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ENSMUSG00000037206</t>
+          <t>ENSMUSG00000001661</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Islr</t>
+          <t>Hoxc6</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>chr9:58156267-58204306</t>
+          <t>chr15:103009572-103011881</t>
         </is>
       </c>
       <c r="D62">
-        <v>0.450999</v>
+        <v>31.9256</v>
       </c>
       <c r="E62">
-        <v>0.214406</v>
+        <v>28.154</v>
       </c>
       <c r="F62">
-        <v>3.80804</v>
+        <v>18.4653</v>
       </c>
       <c r="G62">
-        <v>1.9149</v>
+        <v>19.2656</v>
       </c>
       <c r="H62">
-        <v>6.19897</v>
+        <v>5.87123</v>
       </c>
       <c r="I62">
-        <v>6.55717</v>
+        <v>11.4011</v>
       </c>
       <c r="J62">
-        <v>4.79036</v>
+        <v>3.09365</v>
       </c>
       <c r="K62">
-        <v>2.69901</v>
+        <v>6.28481</v>
       </c>
       <c r="L62">
-        <v>0.802499</v>
+        <v>17.1121</v>
       </c>
       <c r="M62">
-        <v>0.639189</v>
+        <v>18.6101</v>
       </c>
       <c r="N62">
-        <v>6.75129</v>
+        <v>1.5827</v>
       </c>
       <c r="O62">
-        <v>4.67183</v>
+        <v>0.57401</v>
       </c>
       <c r="P62">
-        <v>14.2471</v>
+        <v>0.147063</v>
       </c>
       <c r="Q62">
-        <v>7.1077</v>
+        <v>0.116035</v>
       </c>
       <c r="R62">
-        <v>25.595</v>
+        <v>0.0694505</v>
       </c>
       <c r="S62">
-        <v>15.9368</v>
+        <v>0.036638</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036602</t>
+          <t>ENSMUSG00000024619</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Alx1</t>
+          <t>Cdx1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>chr10:102998706-103030215</t>
+          <t>chr18:61018861-61036199</t>
         </is>
       </c>
       <c r="D63">
-        <v>2.5183</v>
+        <v>14.8347</v>
       </c>
       <c r="E63">
-        <v>2.2006</v>
+        <v>13.6785</v>
       </c>
       <c r="F63">
-        <v>0.0452874</v>
+        <v>1.83582</v>
       </c>
       <c r="G63">
-        <v>0.165919</v>
+        <v>0.671888</v>
       </c>
       <c r="H63">
-        <v>0.124935</v>
+        <v>0.141177</v>
       </c>
       <c r="I63">
-        <v>0.067304</v>
+        <v>0.0325951</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0.0226412</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>12.751</v>
+        <v>22.2891</v>
       </c>
       <c r="M63">
-        <v>13.3622</v>
+        <v>18.1613</v>
       </c>
       <c r="N63">
-        <v>1.45582</v>
+        <v>1.18887</v>
       </c>
       <c r="O63">
-        <v>1.09246</v>
+        <v>0.553149</v>
       </c>
       <c r="P63">
-        <v>0.290336</v>
+        <v>0.177147</v>
       </c>
       <c r="Q63">
-        <v>0.964249</v>
+        <v>0.209658</v>
       </c>
       <c r="R63">
-        <v>0.172755</v>
+        <v>0.188231</v>
       </c>
       <c r="S63">
-        <v>0.463997</v>
+        <v>0.231699</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022346</t>
+          <t>ENSMUSG00000022485</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Myc</t>
+          <t>Hoxc5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>chr15:61985390-61990374</t>
+          <t>chr15:103013814-103017429</t>
         </is>
       </c>
       <c r="D64">
-        <v>12.1139</v>
+        <v>35.8173</v>
       </c>
       <c r="E64">
-        <v>16.5433</v>
+        <v>35.972</v>
       </c>
       <c r="F64">
-        <v>10.9368</v>
+        <v>8.195510000000001</v>
       </c>
       <c r="G64">
-        <v>8.63035</v>
+        <v>8.830550000000001</v>
       </c>
       <c r="H64">
-        <v>4.22025</v>
+        <v>1.58179</v>
       </c>
       <c r="I64">
-        <v>11.2577</v>
+        <v>4.64449</v>
       </c>
       <c r="J64">
-        <v>23.04</v>
+        <v>0.570443</v>
       </c>
       <c r="K64">
-        <v>13.4923</v>
+        <v>2.04733</v>
       </c>
       <c r="L64">
-        <v>29.0789</v>
+        <v>16.9873</v>
       </c>
       <c r="M64">
-        <v>45.0575</v>
+        <v>17.4521</v>
       </c>
       <c r="N64">
-        <v>6.18456</v>
+        <v>0.173135</v>
       </c>
       <c r="O64">
-        <v>5.80544</v>
+        <v>0.206981</v>
       </c>
       <c r="P64">
-        <v>2.00393</v>
+        <v>0.119315</v>
       </c>
       <c r="Q64">
-        <v>2.74779</v>
+        <v>0.06276130000000001</v>
       </c>
       <c r="R64">
-        <v>3.89965</v>
+        <v>0</v>
       </c>
       <c r="S64">
-        <v>2.04061</v>
+        <v>0.0198169</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028864</t>
+          <t>ENSMUSG00000048534</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hgf</t>
+          <t>Jaml</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>chr5:16553549-16620152</t>
+          <t>chr9:45079182-45108534</t>
         </is>
       </c>
       <c r="D65">
-        <v>9.787699999999999</v>
+        <v>2.5347</v>
       </c>
       <c r="E65">
-        <v>10.5854</v>
+        <v>1.59933</v>
       </c>
       <c r="F65">
-        <v>1.86187</v>
+        <v>0.149474</v>
       </c>
       <c r="G65">
-        <v>2.30685</v>
+        <v>0.12984</v>
       </c>
       <c r="H65">
-        <v>0.741319</v>
+        <v>0.043517</v>
       </c>
       <c r="I65">
-        <v>1.1062</v>
+        <v>0.0334749</v>
       </c>
       <c r="J65">
-        <v>0.374554</v>
+        <v>0.0150562</v>
       </c>
       <c r="K65">
-        <v>0.757625</v>
+        <v>0.103565</v>
       </c>
       <c r="L65">
-        <v>10.4904</v>
+        <v>18.2248</v>
       </c>
       <c r="M65">
-        <v>11.3163</v>
+        <v>18.0148</v>
       </c>
       <c r="N65">
-        <v>0.24225</v>
+        <v>1.18025</v>
       </c>
       <c r="O65">
-        <v>0.775373</v>
+        <v>0.569751</v>
       </c>
       <c r="P65">
-        <v>0.132927</v>
+        <v>0.216243</v>
       </c>
       <c r="Q65">
-        <v>0.214022</v>
+        <v>0.0745434</v>
       </c>
       <c r="R65">
-        <v>0.0844304</v>
+        <v>0.142085</v>
       </c>
       <c r="S65">
-        <v>0.190332</v>
+        <v>0.0679849</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ENSMUSG00000026394</t>
+          <t>ENSMUSG00000038700</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Atp6v1g3</t>
+          <t>Hoxb5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>chr1:138273737-138289462</t>
+          <t>chr11:96303511-96306120</t>
         </is>
       </c>
       <c r="D66">
+        <v>6.87224</v>
+      </c>
+      <c r="E66">
+        <v>4.3585</v>
+      </c>
+      <c r="F66">
+        <v>0.368554</v>
+      </c>
+      <c r="G66">
+        <v>0.561384</v>
+      </c>
+      <c r="H66">
+        <v>0.03725</v>
+      </c>
+      <c r="I66">
+        <v>0.120404</v>
+      </c>
+      <c r="J66">
         <v>0</v>
       </c>
-      <c r="E66">
+      <c r="K66">
         <v>0</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0.148359</v>
-      </c>
-      <c r="H66">
-        <v>3.49764</v>
-      </c>
-      <c r="I66">
-        <v>0.453429</v>
-      </c>
-      <c r="J66">
-        <v>0.25527</v>
-      </c>
-      <c r="K66">
-        <v>0.418859</v>
-      </c>
       <c r="L66">
-        <v>0</v>
+        <v>15.7483</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>17.805</v>
       </c>
       <c r="N66">
-        <v>0.78967</v>
+        <v>0.237385</v>
       </c>
       <c r="O66">
-        <v>1.18629</v>
+        <v>0.127706</v>
       </c>
       <c r="P66">
-        <v>8.3786</v>
+        <v>0.204491</v>
       </c>
       <c r="Q66">
-        <v>6.25439</v>
+        <v>0.225885</v>
       </c>
       <c r="R66">
-        <v>6.96319</v>
+        <v>0.115885</v>
       </c>
       <c r="S66">
-        <v>12.7084</v>
+        <v>0.0917013</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ENSMUSG00000075588</t>
+          <t>ENSMUSG00000063972</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hoxb2</t>
+          <t>Nr6a1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>chr11:96351630-96354012</t>
+          <t>chr2:38723369-38927688</t>
         </is>
       </c>
       <c r="D67">
-        <v>15.5281</v>
+        <v>19.8387</v>
       </c>
       <c r="E67">
-        <v>13.3668</v>
+        <v>27.4237</v>
       </c>
       <c r="F67">
-        <v>7.46459</v>
+        <v>3.25816</v>
       </c>
       <c r="G67">
-        <v>6.87846</v>
+        <v>3.62896</v>
       </c>
       <c r="H67">
-        <v>2.18964</v>
+        <v>0.384514</v>
       </c>
       <c r="I67">
-        <v>3.60888</v>
+        <v>1.41518</v>
       </c>
       <c r="J67">
-        <v>2.86777</v>
+        <v>0.5296</v>
       </c>
       <c r="K67">
-        <v>1.87262</v>
+        <v>1.41332</v>
       </c>
       <c r="L67">
-        <v>16.0175</v>
+        <v>12.3095</v>
       </c>
       <c r="M67">
-        <v>15.4205</v>
+        <v>22.2005</v>
       </c>
       <c r="N67">
-        <v>0.967109</v>
+        <v>0.53178</v>
       </c>
       <c r="O67">
-        <v>0.9662269999999999</v>
+        <v>0.621201</v>
       </c>
       <c r="P67">
-        <v>0.380845</v>
+        <v>0.105493</v>
       </c>
       <c r="Q67">
-        <v>0.976603</v>
+        <v>0.332953</v>
       </c>
       <c r="R67">
-        <v>0.786863</v>
+        <v>0.151829</v>
       </c>
       <c r="S67">
-        <v>0.498124</v>
+        <v>0.18726</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027358</t>
+          <t>ENSMUSG00000075394</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Bmp2</t>
+          <t>Hoxc4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>chr2:133552158-133562885</t>
+          <t>chr15:103018933-103036852</t>
         </is>
       </c>
       <c r="D68">
-        <v>7.68567</v>
+        <v>10.8934</v>
       </c>
       <c r="E68">
-        <v>5.41178</v>
+        <v>10.5144</v>
       </c>
       <c r="F68">
-        <v>13.6735</v>
+        <v>3.98769</v>
       </c>
       <c r="G68">
-        <v>10.1901</v>
+        <v>6.33169</v>
       </c>
       <c r="H68">
-        <v>4.9839</v>
+        <v>3.30718</v>
       </c>
       <c r="I68">
-        <v>6.51443</v>
+        <v>4.46672</v>
       </c>
       <c r="J68">
-        <v>4.01282</v>
+        <v>1.97496</v>
       </c>
       <c r="K68">
-        <v>2.49328</v>
+        <v>4.6428</v>
       </c>
       <c r="L68">
-        <v>0.254692</v>
+        <v>12.9773</v>
       </c>
       <c r="M68">
-        <v>0.451952</v>
+        <v>16.2716</v>
       </c>
       <c r="N68">
-        <v>2.37259</v>
+        <v>0.231339</v>
       </c>
       <c r="O68">
-        <v>3.08034</v>
+        <v>0.413338</v>
       </c>
       <c r="P68">
-        <v>8.41513</v>
+        <v>0.0781664</v>
       </c>
       <c r="Q68">
-        <v>8.308199999999999</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>14.3725</v>
+        <v>0.0690249</v>
       </c>
       <c r="S68">
-        <v>11.813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ENSMUSG00000021359</t>
+          <t>ENSMUSG00000030905</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tfap2a</t>
+          <t>Crym</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>chr13:40715301-40738376</t>
+          <t>chr7:120186379-120202111</t>
         </is>
       </c>
       <c r="D69">
-        <v>34.1664</v>
+        <v>2.21563</v>
       </c>
       <c r="E69">
-        <v>35.0746</v>
+        <v>1.85956</v>
       </c>
       <c r="F69">
-        <v>42.8233</v>
+        <v>0.302998</v>
       </c>
       <c r="G69">
-        <v>43.7833</v>
+        <v>0.32388</v>
       </c>
       <c r="H69">
-        <v>38.5597</v>
+        <v>0.535923</v>
       </c>
       <c r="I69">
-        <v>45.62</v>
+        <v>0.0412447</v>
       </c>
       <c r="J69">
-        <v>53.6449</v>
+        <v>0.0535841</v>
       </c>
       <c r="K69">
-        <v>55.5327</v>
+        <v>0.122465</v>
       </c>
       <c r="L69">
-        <v>1.50292</v>
+        <v>21.2118</v>
       </c>
       <c r="M69">
-        <v>0.931292</v>
+        <v>18.4064</v>
       </c>
       <c r="N69">
-        <v>18.5531</v>
+        <v>1.24008</v>
       </c>
       <c r="O69">
-        <v>19.4501</v>
+        <v>1.0499</v>
       </c>
       <c r="P69">
-        <v>13.7985</v>
+        <v>0.532371</v>
       </c>
       <c r="Q69">
-        <v>15.6217</v>
+        <v>0.132647</v>
       </c>
       <c r="R69">
-        <v>35.0918</v>
+        <v>0.502825</v>
       </c>
       <c r="S69">
-        <v>15.0727</v>
+        <v>0.586367</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028565</t>
+          <t>ENSMUSG00000043342</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nfia</t>
+          <t>Hoxd9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>chr4:97772733-98118874</t>
+          <t>chr2:74697726-74700208</t>
         </is>
       </c>
       <c r="D70">
-        <v>0.353119</v>
+        <v>11.0381</v>
       </c>
       <c r="E70">
-        <v>0.259703</v>
+        <v>5.25599</v>
       </c>
       <c r="F70">
-        <v>1.1993</v>
+        <v>3.33511</v>
       </c>
       <c r="G70">
-        <v>2.04034</v>
+        <v>3.56495</v>
       </c>
       <c r="H70">
-        <v>4.23586</v>
+        <v>3.56909</v>
       </c>
       <c r="I70">
-        <v>2.56923</v>
+        <v>0.507391</v>
       </c>
       <c r="J70">
-        <v>2.98124</v>
+        <v>0.173471</v>
       </c>
       <c r="K70">
-        <v>2.7357</v>
+        <v>0.105723</v>
       </c>
       <c r="L70">
-        <v>0.378536</v>
+        <v>75.40170000000001</v>
       </c>
       <c r="M70">
-        <v>1.28731</v>
+        <v>82.36539999999999</v>
       </c>
       <c r="N70">
-        <v>5.69589</v>
+        <v>31.6691</v>
       </c>
       <c r="O70">
-        <v>10.4396</v>
+        <v>23.9057</v>
       </c>
       <c r="P70">
-        <v>12.3868</v>
+        <v>6.27708</v>
       </c>
       <c r="Q70">
-        <v>12.1212</v>
+        <v>9.47602</v>
       </c>
       <c r="R70">
-        <v>17.1351</v>
+        <v>3.52981</v>
       </c>
       <c r="S70">
-        <v>18.2461</v>
+        <v>6.15585</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ENSMUSG00000095440</t>
+          <t>ENSMUSG00000056648</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fignl2</t>
+          <t>Hoxb8</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>chr15:101050193-101078567</t>
+          <t>chr11:96281904-96285315</t>
         </is>
       </c>
       <c r="D71">
-        <v>26.0183</v>
+        <v>4.49072</v>
       </c>
       <c r="E71">
-        <v>23.5331</v>
+        <v>2.38922</v>
       </c>
       <c r="F71">
-        <v>14.7214</v>
+        <v>0.305653</v>
       </c>
       <c r="G71">
-        <v>10.9442</v>
+        <v>0.716456</v>
       </c>
       <c r="H71">
-        <v>4.97721</v>
+        <v>0.107156</v>
       </c>
       <c r="I71">
-        <v>6.93968</v>
+        <v>0.10824</v>
       </c>
       <c r="J71">
-        <v>2.29069</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>3.78076</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>34.0712</v>
+        <v>15.1911</v>
       </c>
       <c r="M71">
-        <v>33.9146</v>
+        <v>16.3677</v>
       </c>
       <c r="N71">
-        <v>25.1219</v>
+        <v>0.429254</v>
       </c>
       <c r="O71">
-        <v>20.9338</v>
+        <v>0.256504</v>
       </c>
       <c r="P71">
-        <v>4.21026</v>
+        <v>0.325334</v>
       </c>
       <c r="Q71">
-        <v>7.31839</v>
+        <v>0.208866</v>
       </c>
       <c r="R71">
-        <v>1.42745</v>
+        <v>0.333364</v>
       </c>
       <c r="S71">
-        <v>3.50404</v>
+        <v>0.199274</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ENSMUSG00000074622</t>
+          <t>ENSMUSG00000027102</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mafb</t>
+          <t>Hoxd8</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>chr2:160363702-160367065</t>
+          <t>chr2:74704614-74707933</t>
         </is>
       </c>
       <c r="D72">
-        <v>1.51859</v>
+        <v>3.44766</v>
       </c>
       <c r="E72">
-        <v>1.35298</v>
+        <v>3.06085</v>
       </c>
       <c r="F72">
-        <v>5.48262</v>
+        <v>0.821981</v>
       </c>
       <c r="G72">
-        <v>4.89482</v>
+        <v>2.0271</v>
       </c>
       <c r="H72">
-        <v>8.41691</v>
+        <v>1.44704</v>
       </c>
       <c r="I72">
-        <v>5.12236</v>
+        <v>0.108285</v>
       </c>
       <c r="J72">
-        <v>6.94132</v>
+        <v>0.0422391</v>
       </c>
       <c r="K72">
-        <v>6.02669</v>
+        <v>0.0428672</v>
       </c>
       <c r="L72">
-        <v>1.12001</v>
+        <v>28.8658</v>
       </c>
       <c r="M72">
-        <v>0.597194</v>
+        <v>35.1691</v>
       </c>
       <c r="N72">
-        <v>2.67525</v>
+        <v>13.3237</v>
       </c>
       <c r="O72">
-        <v>2.1768</v>
+        <v>13.833</v>
       </c>
       <c r="P72">
-        <v>9.725199999999999</v>
+        <v>2.31559</v>
       </c>
       <c r="Q72">
-        <v>5.38225</v>
+        <v>4.98381</v>
       </c>
       <c r="R72">
-        <v>30.3425</v>
+        <v>1.12649</v>
       </c>
       <c r="S72">
-        <v>13.7276</v>
+        <v>1.81268</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ENSMUSG00000054452</t>
+          <t>ENSMUSG00000048763</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Aes</t>
+          <t>Hoxb3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>chr10:81559493-81566362</t>
+          <t>chr11:96323325-96347930</t>
         </is>
       </c>
       <c r="D73">
-        <v>105.325</v>
+        <v>3.86924</v>
       </c>
       <c r="E73">
-        <v>75.4302</v>
+        <v>4.35456</v>
       </c>
       <c r="F73">
-        <v>175.865</v>
+        <v>0.591132</v>
       </c>
       <c r="G73">
-        <v>120.949</v>
+        <v>1.64483</v>
       </c>
       <c r="H73">
-        <v>178.373</v>
+        <v>0.506502</v>
       </c>
       <c r="I73">
-        <v>137.57</v>
+        <v>0.9365250000000001</v>
       </c>
       <c r="J73">
-        <v>187.867</v>
+        <v>0.687355</v>
       </c>
       <c r="K73">
-        <v>130.437</v>
+        <v>0.513257</v>
       </c>
       <c r="L73">
-        <v>19.7385</v>
+        <v>9.24597</v>
       </c>
       <c r="M73">
-        <v>10.3194</v>
+        <v>16.661</v>
       </c>
       <c r="N73">
-        <v>83.13030000000001</v>
+        <v>0.246815</v>
       </c>
       <c r="O73">
-        <v>69.8909</v>
+        <v>0.246573</v>
       </c>
       <c r="P73">
-        <v>143.085</v>
+        <v>0.219245</v>
       </c>
       <c r="Q73">
-        <v>85.0732</v>
+        <v>0.103877</v>
       </c>
       <c r="R73">
-        <v>177.607</v>
+        <v>0.0459007</v>
       </c>
       <c r="S73">
-        <v>114.782</v>
+        <v>0.165487</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ENSMUSG00000054934</t>
+          <t>ENSMUSG00000115956</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Kcnmb4</t>
+          <t>Hoxd4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>chr10:116417860-116473878</t>
+          <t>chr2:74721977-74729160</t>
         </is>
       </c>
       <c r="D74">
-        <v>4.66991</v>
+        <v>2.57001</v>
       </c>
       <c r="E74">
-        <v>4.45007</v>
+        <v>4.3177</v>
       </c>
       <c r="F74">
-        <v>5.92653</v>
+        <v>0.109177</v>
       </c>
       <c r="G74">
-        <v>5.28369</v>
+        <v>1.77233</v>
       </c>
       <c r="H74">
-        <v>14.6135</v>
+        <v>0.0944961</v>
       </c>
       <c r="I74">
-        <v>8.34548</v>
+        <v>0.194651</v>
       </c>
       <c r="J74">
-        <v>9.053290000000001</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>7.59907</v>
+        <v>0.0755768</v>
       </c>
       <c r="L74">
-        <v>3.28525</v>
+        <v>7.99798</v>
       </c>
       <c r="M74">
-        <v>2.24049</v>
+        <v>21.3744</v>
       </c>
       <c r="N74">
-        <v>5.57369</v>
+        <v>1.61446</v>
       </c>
       <c r="O74">
-        <v>5.5765</v>
+        <v>6.31189</v>
       </c>
       <c r="P74">
-        <v>31.8059</v>
+        <v>0.111677</v>
       </c>
       <c r="Q74">
-        <v>14.5383</v>
+        <v>1.892</v>
       </c>
       <c r="R74">
-        <v>30.5226</v>
+        <v>0.100471</v>
       </c>
       <c r="S74">
-        <v>40.043</v>
+        <v>0.555554</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ENSMUSG00000019647</t>
+          <t>ENSMUSG00000020875</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sema6a</t>
+          <t>Hoxb9</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>chr18:47235597-47368868</t>
+          <t>chr11:96271456-96276595</t>
         </is>
       </c>
       <c r="D75">
-        <v>12.9132</v>
+        <v>3.26209</v>
       </c>
       <c r="E75">
-        <v>16.8326</v>
+        <v>3.69652</v>
       </c>
       <c r="F75">
-        <v>14.1527</v>
+        <v>1.16966</v>
       </c>
       <c r="G75">
-        <v>16.9085</v>
+        <v>0.66626</v>
       </c>
       <c r="H75">
-        <v>13.6336</v>
+        <v>0.846047</v>
       </c>
       <c r="I75">
-        <v>17.2264</v>
+        <v>0.251393</v>
       </c>
       <c r="J75">
-        <v>12.0617</v>
+        <v>0.0816499</v>
       </c>
       <c r="K75">
-        <v>16.8644</v>
+        <v>0.0877339</v>
       </c>
       <c r="L75">
-        <v>1.69177</v>
+        <v>15.0729</v>
       </c>
       <c r="M75">
-        <v>2.35274</v>
+        <v>19.8265</v>
       </c>
       <c r="N75">
-        <v>3.63521</v>
+        <v>0.404916</v>
       </c>
       <c r="O75">
-        <v>4.57103</v>
+        <v>0.74659</v>
       </c>
       <c r="P75">
-        <v>13.0303</v>
+        <v>0.478195</v>
       </c>
       <c r="Q75">
-        <v>10.203</v>
+        <v>0.565955</v>
       </c>
       <c r="R75">
-        <v>36.5357</v>
+        <v>0.661354</v>
       </c>
       <c r="S75">
-        <v>34.2951</v>
+        <v>0.969144</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029810</t>
+          <t>ENSMUSG00000032852</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tmem176b</t>
+          <t>Rspo4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>chr6:48833817-48841496</t>
+          <t>chr2:151842926-151874668</t>
         </is>
       </c>
       <c r="D76">
-        <v>8.59625</v>
+        <v>5.70797</v>
       </c>
       <c r="E76">
-        <v>4.88855</v>
+        <v>2.69084</v>
       </c>
       <c r="F76">
-        <v>14.9407</v>
+        <v>1.41391</v>
       </c>
       <c r="G76">
-        <v>12.3417</v>
+        <v>2.05449</v>
       </c>
       <c r="H76">
-        <v>29.2513</v>
+        <v>1.77142</v>
       </c>
       <c r="I76">
-        <v>18.0046</v>
+        <v>0.144348</v>
       </c>
       <c r="J76">
-        <v>41.5252</v>
+        <v>0.375066</v>
       </c>
       <c r="K76">
-        <v>25.2238</v>
+        <v>0.0952445</v>
       </c>
       <c r="L76">
-        <v>4.50297</v>
+        <v>40.8609</v>
       </c>
       <c r="M76">
-        <v>3.77814</v>
+        <v>34.4962</v>
       </c>
       <c r="N76">
-        <v>17.0081</v>
+        <v>23.7515</v>
       </c>
       <c r="O76">
-        <v>14.1078</v>
+        <v>13.0902</v>
       </c>
       <c r="P76">
-        <v>38.3088</v>
+        <v>3.82444</v>
       </c>
       <c r="Q76">
-        <v>17.9409</v>
+        <v>4.53921</v>
       </c>
       <c r="R76">
-        <v>69.0468</v>
+        <v>2.50074</v>
       </c>
       <c r="S76">
-        <v>38.0641</v>
+        <v>2.2476</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ENSMUSG00000072825</t>
+          <t>ENSMUSG00000036602</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cep170b</t>
+          <t>Alx1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>chr12:112720454-112746592</t>
+          <t>chr10:102998706-103030215</t>
         </is>
       </c>
       <c r="D77">
-        <v>35.0076</v>
+        <v>2.5183</v>
       </c>
       <c r="E77">
-        <v>30.2956</v>
+        <v>2.2006</v>
       </c>
       <c r="F77">
-        <v>36.3237</v>
+        <v>0.0452874</v>
       </c>
       <c r="G77">
-        <v>36.6507</v>
+        <v>0.165919</v>
       </c>
       <c r="H77">
-        <v>32.8048</v>
+        <v>0.124935</v>
       </c>
       <c r="I77">
-        <v>36.572</v>
+        <v>0.067304</v>
       </c>
       <c r="J77">
-        <v>40.6906</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>36.2499</v>
+        <v>0.0226412</v>
       </c>
       <c r="L77">
-        <v>1.20447</v>
+        <v>12.751</v>
       </c>
       <c r="M77">
-        <v>1.04303</v>
+        <v>13.3622</v>
       </c>
       <c r="N77">
-        <v>9.574579999999999</v>
+        <v>1.45582</v>
       </c>
       <c r="O77">
-        <v>10.2339</v>
+        <v>1.09246</v>
       </c>
       <c r="P77">
-        <v>16.5632</v>
+        <v>0.290336</v>
       </c>
       <c r="Q77">
-        <v>12.5001</v>
+        <v>0.964249</v>
       </c>
       <c r="R77">
-        <v>19.215</v>
+        <v>0.172755</v>
       </c>
       <c r="S77">
-        <v>18.0236</v>
+        <v>0.463997</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ENSMUSG00000005503</t>
+          <t>ENSMUSG00000022346</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Evx1</t>
+          <t>Myc</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>chr6:52313497-52318378</t>
+          <t>chr15:61985390-61990374</t>
         </is>
       </c>
       <c r="D78">
-        <v>0.0295853</v>
+        <v>12.1139</v>
       </c>
       <c r="E78">
-        <v>0.0515726</v>
+        <v>16.5433</v>
       </c>
       <c r="F78">
-        <v>2.18485</v>
+        <v>10.9368</v>
       </c>
       <c r="G78">
-        <v>2.7674</v>
+        <v>8.63035</v>
       </c>
       <c r="H78">
-        <v>7.41521</v>
+        <v>4.22025</v>
       </c>
       <c r="I78">
-        <v>0.951685</v>
+        <v>11.2577</v>
       </c>
       <c r="J78">
-        <v>0.675785</v>
+        <v>23.04</v>
       </c>
       <c r="K78">
-        <v>0.726063</v>
+        <v>13.4923</v>
       </c>
       <c r="L78">
-        <v>0.17624</v>
+        <v>29.0789</v>
       </c>
       <c r="M78">
-        <v>0.219982</v>
+        <v>45.0575</v>
       </c>
       <c r="N78">
-        <v>23.419</v>
+        <v>6.18456</v>
       </c>
       <c r="O78">
-        <v>20.3562</v>
+        <v>5.80544</v>
       </c>
       <c r="P78">
-        <v>13.5475</v>
+        <v>2.00393</v>
       </c>
       <c r="Q78">
-        <v>17.3058</v>
+        <v>2.74779</v>
       </c>
       <c r="R78">
-        <v>8.805400000000001</v>
+        <v>3.89965</v>
       </c>
       <c r="S78">
-        <v>7.00976</v>
+        <v>2.04061</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ENSMUSG00000092035</t>
+          <t>ENSMUSG00000028864</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Peg10</t>
+          <t>Hgf</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>chr6:4747305-4760517</t>
+          <t>chr5:16553549-16620152</t>
         </is>
       </c>
       <c r="D79">
-        <v>155.627</v>
+        <v>9.787699999999999</v>
       </c>
       <c r="E79">
-        <v>300.493</v>
+        <v>10.5854</v>
       </c>
       <c r="F79">
-        <v>22.342</v>
+        <v>1.86187</v>
       </c>
       <c r="G79">
-        <v>27.812</v>
+        <v>2.30685</v>
       </c>
       <c r="H79">
-        <v>10.4649</v>
+        <v>0.741319</v>
       </c>
       <c r="I79">
-        <v>11.3882</v>
+        <v>1.1062</v>
       </c>
       <c r="J79">
-        <v>2.9848</v>
+        <v>0.374554</v>
       </c>
       <c r="K79">
-        <v>5.42178</v>
+        <v>0.757625</v>
       </c>
       <c r="L79">
-        <v>150.36</v>
+        <v>10.4904</v>
       </c>
       <c r="M79">
-        <v>304.77</v>
+        <v>11.3163</v>
       </c>
       <c r="N79">
-        <v>81.09869999999999</v>
+        <v>0.24225</v>
       </c>
       <c r="O79">
-        <v>97.4571</v>
+        <v>0.775373</v>
       </c>
       <c r="P79">
-        <v>34.89</v>
+        <v>0.132927</v>
       </c>
       <c r="Q79">
-        <v>66.0727</v>
+        <v>0.214022</v>
       </c>
       <c r="R79">
-        <v>12.3168</v>
+        <v>0.0844304</v>
       </c>
       <c r="S79">
-        <v>30.0879</v>
+        <v>0.190332</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032289</t>
+          <t>ENSMUSG00000075588</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Thsd4</t>
+          <t>Hoxb2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>chr9:59966930-60522046</t>
+          <t>chr11:96351630-96354012</t>
         </is>
       </c>
       <c r="D80">
-        <v>7.66432</v>
+        <v>15.5281</v>
       </c>
       <c r="E80">
-        <v>8.45506</v>
+        <v>13.3668</v>
       </c>
       <c r="F80">
-        <v>4.66234</v>
+        <v>7.46459</v>
       </c>
       <c r="G80">
-        <v>4.51465</v>
+        <v>6.87846</v>
       </c>
       <c r="H80">
-        <v>8.829750000000001</v>
+        <v>2.18964</v>
       </c>
       <c r="I80">
-        <v>4.78059</v>
+        <v>3.60888</v>
       </c>
       <c r="J80">
-        <v>7.69124</v>
+        <v>2.86777</v>
       </c>
       <c r="K80">
-        <v>5.06719</v>
+        <v>1.87262</v>
       </c>
       <c r="L80">
-        <v>2.58893</v>
+        <v>16.0175</v>
       </c>
       <c r="M80">
-        <v>2.09295</v>
+        <v>15.4205</v>
       </c>
       <c r="N80">
-        <v>4.50268</v>
+        <v>0.967109</v>
       </c>
       <c r="O80">
-        <v>7.01494</v>
+        <v>0.9662269999999999</v>
       </c>
       <c r="P80">
-        <v>20.6164</v>
+        <v>0.380845</v>
       </c>
       <c r="Q80">
-        <v>19.7397</v>
+        <v>0.976603</v>
       </c>
       <c r="R80">
-        <v>35.6559</v>
+        <v>0.786863</v>
       </c>
       <c r="S80">
-        <v>23.1167</v>
+        <v>0.498124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022261</t>
+          <t>ENSMUSG00000095440</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sdc2</t>
+          <t>Fignl2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>chr15:32920722-33034935</t>
+          <t>chr15:101050193-101078567</t>
         </is>
       </c>
       <c r="D81">
-        <v>3.45101</v>
+        <v>26.0183</v>
       </c>
       <c r="E81">
-        <v>4.05249</v>
+        <v>23.5331</v>
       </c>
       <c r="F81">
-        <v>5.4257</v>
+        <v>14.7214</v>
       </c>
       <c r="G81">
-        <v>5.50858</v>
+        <v>10.9442</v>
       </c>
       <c r="H81">
-        <v>19.0131</v>
+        <v>4.97721</v>
       </c>
       <c r="I81">
-        <v>6.38825</v>
+        <v>6.93968</v>
       </c>
       <c r="J81">
-        <v>8.351990000000001</v>
+        <v>2.29069</v>
       </c>
       <c r="K81">
-        <v>6.49878</v>
+        <v>3.78076</v>
       </c>
       <c r="L81">
-        <v>4.02528</v>
+        <v>34.0712</v>
       </c>
       <c r="M81">
-        <v>3.16031</v>
+        <v>33.9146</v>
       </c>
       <c r="N81">
-        <v>11.9651</v>
+        <v>25.1219</v>
       </c>
       <c r="O81">
-        <v>11.2871</v>
+        <v>20.9338</v>
       </c>
       <c r="P81">
-        <v>25.1162</v>
+        <v>4.21026</v>
       </c>
       <c r="Q81">
-        <v>18.6035</v>
+        <v>7.31839</v>
       </c>
       <c r="R81">
-        <v>58.7038</v>
+        <v>1.42745</v>
       </c>
       <c r="S81">
-        <v>37.2807</v>
+        <v>3.50404</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001870</t>
+          <t>ENSMUSG00000092035</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ltbp1</t>
+          <t>Peg10</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>chr17:75005567-75391767</t>
+          <t>chr6:4747305-4760517</t>
         </is>
       </c>
       <c r="D82">
-        <v>8.63843</v>
+        <v>155.627</v>
       </c>
       <c r="E82">
-        <v>5.82285</v>
+        <v>300.493</v>
       </c>
       <c r="F82">
-        <v>10.4465</v>
+        <v>22.342</v>
       </c>
       <c r="G82">
-        <v>11.0067</v>
+        <v>27.812</v>
       </c>
       <c r="H82">
-        <v>35.8271</v>
+        <v>10.4649</v>
       </c>
       <c r="I82">
-        <v>16.5026</v>
+        <v>11.3882</v>
       </c>
       <c r="J82">
-        <v>19.9352</v>
+        <v>2.9848</v>
       </c>
       <c r="K82">
-        <v>17.3478</v>
+        <v>5.42178</v>
       </c>
       <c r="L82">
-        <v>4.59816</v>
+        <v>150.36</v>
       </c>
       <c r="M82">
-        <v>3.33388</v>
+        <v>304.77</v>
       </c>
       <c r="N82">
-        <v>13.9523</v>
+        <v>81.09869999999999</v>
       </c>
       <c r="O82">
-        <v>31.0206</v>
+        <v>97.4571</v>
       </c>
       <c r="P82">
-        <v>44.9294</v>
+        <v>34.89</v>
       </c>
       <c r="Q82">
-        <v>46.6111</v>
+        <v>66.0727</v>
       </c>
       <c r="R82">
-        <v>38.2832</v>
+        <v>12.3168</v>
       </c>
       <c r="S82">
-        <v>33.5048</v>
+        <v>30.0879</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ENSMUSG00000079037</t>
+          <t>ENSMUSG00000029844</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Prnp</t>
+          <t>Hoxa1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>chr2:131909927-131938429</t>
+          <t>chr6:52155589-52158317</t>
         </is>
       </c>
       <c r="D83">
-        <v>3.11784</v>
+        <v>4.79914</v>
       </c>
       <c r="E83">
-        <v>2.76272</v>
+        <v>6.34169</v>
       </c>
       <c r="F83">
-        <v>9.625529999999999</v>
+        <v>1.64444</v>
       </c>
       <c r="G83">
-        <v>8.947229999999999</v>
+        <v>1.90674</v>
       </c>
       <c r="H83">
-        <v>15.8534</v>
+        <v>0.846916</v>
       </c>
       <c r="I83">
-        <v>12.9545</v>
+        <v>1.21989</v>
       </c>
       <c r="J83">
-        <v>18.6285</v>
+        <v>1.52582</v>
       </c>
       <c r="K83">
-        <v>16.0011</v>
+        <v>1.32933</v>
       </c>
       <c r="L83">
-        <v>2.38795</v>
+        <v>6.85837</v>
       </c>
       <c r="M83">
-        <v>1.3104</v>
+        <v>10.1638</v>
       </c>
       <c r="N83">
-        <v>7.63385</v>
+        <v>0.320338</v>
       </c>
       <c r="O83">
-        <v>8.80916</v>
+        <v>0.08883870000000001</v>
       </c>
       <c r="P83">
-        <v>21.7886</v>
+        <v>0.0948372</v>
       </c>
       <c r="Q83">
-        <v>15.2316</v>
+        <v>0.217372</v>
       </c>
       <c r="R83">
-        <v>24.1824</v>
+        <v>0.130107</v>
       </c>
       <c r="S83">
-        <v>22.1196</v>
+        <v>0.0567034</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ENSMUSG00000030329</t>
+          <t>ENSMUSG00000017491</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Pianp</t>
+          <t>Rarb</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>chr6:124996693-125003096</t>
+          <t>chr14:16430838-16819156</t>
         </is>
       </c>
       <c r="D84">
-        <v>1.43009</v>
+        <v>3.63445</v>
       </c>
       <c r="E84">
-        <v>0.94031</v>
+        <v>3.7077</v>
       </c>
       <c r="F84">
-        <v>2.68703</v>
+        <v>0.359542</v>
       </c>
       <c r="G84">
-        <v>2.276</v>
+        <v>0.21618</v>
       </c>
       <c r="H84">
-        <v>7.52802</v>
+        <v>0.169329</v>
       </c>
       <c r="I84">
-        <v>6.84178</v>
+        <v>0.248143</v>
       </c>
       <c r="J84">
-        <v>6.5702</v>
+        <v>0.24467</v>
       </c>
       <c r="K84">
-        <v>7.5856</v>
+        <v>0.326967</v>
       </c>
       <c r="L84">
-        <v>0.862818</v>
+        <v>16.4306</v>
       </c>
       <c r="M84">
-        <v>1.10494</v>
+        <v>15.8205</v>
       </c>
       <c r="N84">
-        <v>5.37828</v>
+        <v>0.0995099</v>
       </c>
       <c r="O84">
-        <v>4.30839</v>
+        <v>0.179997</v>
       </c>
       <c r="P84">
-        <v>12.8537</v>
+        <v>0.2743</v>
       </c>
       <c r="Q84">
-        <v>10.3996</v>
+        <v>0.3464</v>
       </c>
       <c r="R84">
-        <v>14.9597</v>
+        <v>2.34596</v>
       </c>
       <c r="S84">
-        <v>20.5869</v>
+        <v>0.916388</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029844</t>
+          <t>ENSMUSG00000051920</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Hoxa1</t>
+          <t>Rspo2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>chr6:52155589-52158317</t>
+          <t>chr15:43020793-43170826</t>
         </is>
       </c>
       <c r="D85">
-        <v>4.79914</v>
+        <v>20.3003</v>
       </c>
       <c r="E85">
-        <v>6.34169</v>
+        <v>10.1726</v>
       </c>
       <c r="F85">
-        <v>1.64444</v>
+        <v>57.5621</v>
       </c>
       <c r="G85">
-        <v>1.90674</v>
+        <v>63.8234</v>
       </c>
       <c r="H85">
-        <v>0.846916</v>
+        <v>29.6186</v>
       </c>
       <c r="I85">
-        <v>1.21989</v>
+        <v>51.0409</v>
       </c>
       <c r="J85">
-        <v>1.52582</v>
+        <v>15.9092</v>
       </c>
       <c r="K85">
-        <v>1.32933</v>
+        <v>21.8334</v>
       </c>
       <c r="L85">
-        <v>6.85837</v>
+        <v>9.33165</v>
       </c>
       <c r="M85">
-        <v>10.1638</v>
+        <v>9.98817</v>
       </c>
       <c r="N85">
-        <v>0.320338</v>
+        <v>0.767166</v>
       </c>
       <c r="O85">
-        <v>0.08883870000000001</v>
+        <v>0.622036</v>
       </c>
       <c r="P85">
-        <v>0.0948372</v>
+        <v>0.676982</v>
       </c>
       <c r="Q85">
-        <v>0.217372</v>
+        <v>0.494581</v>
       </c>
       <c r="R85">
-        <v>0.130107</v>
+        <v>0.201296</v>
       </c>
       <c r="S85">
-        <v>0.0567034</v>
+        <v>0.149915</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ENSMUSG00000049907</t>
+          <t>ENSMUSG00000079259</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Rasl11b</t>
+          <t>Trim71</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>chr5:74195285-74199481</t>
+          <t>chr9:114507132-114564369</t>
         </is>
       </c>
       <c r="D86">
-        <v>4.03977</v>
+        <v>14.1284</v>
       </c>
       <c r="E86">
-        <v>7.09651</v>
+        <v>20.7273</v>
       </c>
       <c r="F86">
-        <v>9.982799999999999</v>
+        <v>7.98547</v>
       </c>
       <c r="G86">
-        <v>12.5145</v>
+        <v>9.98377</v>
       </c>
       <c r="H86">
-        <v>9.232620000000001</v>
+        <v>3.02566</v>
       </c>
       <c r="I86">
-        <v>17.125</v>
+        <v>6.02688</v>
       </c>
       <c r="J86">
-        <v>20.6125</v>
+        <v>0.853674</v>
       </c>
       <c r="K86">
-        <v>19.2238</v>
+        <v>2.54089</v>
       </c>
       <c r="L86">
-        <v>2.6983</v>
+        <v>11.1268</v>
       </c>
       <c r="M86">
-        <v>3.49136</v>
+        <v>24.7279</v>
       </c>
       <c r="N86">
-        <v>8.09942</v>
+        <v>8.2761</v>
       </c>
       <c r="O86">
-        <v>10.2504</v>
+        <v>11.1964</v>
       </c>
       <c r="P86">
-        <v>21.7707</v>
+        <v>1.91014</v>
       </c>
       <c r="Q86">
-        <v>18.8311</v>
+        <v>4.78352</v>
       </c>
       <c r="R86">
-        <v>37.8325</v>
+        <v>0.349061</v>
       </c>
       <c r="S86">
-        <v>42.6443</v>
+        <v>1.7504</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027994</t>
+          <t>ENSMUSG00000052396</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Mcub</t>
+          <t>Mogat2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>chr3:129914959-129970206</t>
+          <t>chr7:99219083-99238619</t>
         </is>
       </c>
       <c r="D87">
-        <v>0.0846922</v>
+        <v>13.6761</v>
       </c>
       <c r="E87">
-        <v>0.0492106</v>
+        <v>5.97377</v>
       </c>
       <c r="F87">
-        <v>0.921367</v>
+        <v>3.57053</v>
       </c>
       <c r="G87">
-        <v>1.95699</v>
+        <v>3.20846</v>
       </c>
       <c r="H87">
-        <v>6.32474</v>
+        <v>4.42171</v>
       </c>
       <c r="I87">
-        <v>0.477059</v>
+        <v>0.576823</v>
       </c>
       <c r="J87">
-        <v>0.885473</v>
+        <v>0.249798</v>
       </c>
       <c r="K87">
-        <v>0.724548</v>
+        <v>0.222019</v>
       </c>
       <c r="L87">
-        <v>0.796894</v>
+        <v>85.6396</v>
       </c>
       <c r="M87">
-        <v>0.636585</v>
+        <v>55.8223</v>
       </c>
       <c r="N87">
-        <v>21.0975</v>
+        <v>51.7605</v>
       </c>
       <c r="O87">
-        <v>16.3992</v>
+        <v>26.5115</v>
       </c>
       <c r="P87">
-        <v>17.3807</v>
+        <v>15.1085</v>
       </c>
       <c r="Q87">
-        <v>16.6045</v>
+        <v>13.192</v>
       </c>
       <c r="R87">
-        <v>11.6386</v>
+        <v>5.96299</v>
       </c>
       <c r="S87">
-        <v>12.7892</v>
+        <v>7.02906</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ENSMUSG00000060044</t>
+          <t>ENSMUSG00000059325</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tmem26</t>
+          <t>Hopx</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>chr10:68723745-68782650</t>
+          <t>chr5:77086987-77115121</t>
         </is>
       </c>
       <c r="D88">
-        <v>0.134892</v>
+        <v>1.45303</v>
       </c>
       <c r="E88">
-        <v>0.195948</v>
+        <v>1.33308</v>
       </c>
       <c r="F88">
-        <v>0.207531</v>
+        <v>0.313748</v>
       </c>
       <c r="G88">
-        <v>0.299475</v>
+        <v>1.40857</v>
       </c>
       <c r="H88">
-        <v>1.0977</v>
+        <v>0.824485</v>
       </c>
       <c r="I88">
-        <v>0.327694</v>
+        <v>0.973749</v>
       </c>
       <c r="J88">
-        <v>0.34499</v>
+        <v>2.27522</v>
       </c>
       <c r="K88">
-        <v>0.324332</v>
+        <v>1.54899</v>
       </c>
       <c r="L88">
-        <v>0.545268</v>
+        <v>6.68607</v>
       </c>
       <c r="M88">
-        <v>0.497316</v>
+        <v>9.04649</v>
       </c>
       <c r="N88">
-        <v>2.02176</v>
+        <v>0.32839</v>
       </c>
       <c r="O88">
-        <v>2.99627</v>
+        <v>0.217432</v>
       </c>
       <c r="P88">
-        <v>8.77425</v>
+        <v>0.243717</v>
       </c>
       <c r="Q88">
-        <v>6.89274</v>
+        <v>0.0549383</v>
       </c>
       <c r="R88">
-        <v>13.2539</v>
+        <v>0.197307</v>
       </c>
       <c r="S88">
-        <v>12.5649</v>
+        <v>0.104084</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ENSMUSG00000017491</t>
+          <t>ENSMUSG00000028883</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Rarb</t>
+          <t>Sema3a</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>chr14:16430838-16819156</t>
+          <t>chr5:13396783-13602565</t>
         </is>
       </c>
       <c r="D89">
-        <v>3.63445</v>
+        <v>22.8266</v>
       </c>
       <c r="E89">
-        <v>3.7077</v>
+        <v>25.2579</v>
       </c>
       <c r="F89">
-        <v>0.359542</v>
+        <v>15.0795</v>
       </c>
       <c r="G89">
-        <v>0.21618</v>
+        <v>16.5735</v>
       </c>
       <c r="H89">
-        <v>0.169329</v>
+        <v>21.166</v>
       </c>
       <c r="I89">
-        <v>0.248143</v>
+        <v>25.8821</v>
       </c>
       <c r="J89">
-        <v>0.24467</v>
+        <v>26.0738</v>
       </c>
       <c r="K89">
-        <v>0.326967</v>
+        <v>32.3975</v>
       </c>
       <c r="L89">
-        <v>16.4306</v>
+        <v>39.0051</v>
       </c>
       <c r="M89">
-        <v>15.8205</v>
+        <v>60.2372</v>
       </c>
       <c r="N89">
-        <v>0.0995099</v>
+        <v>4.44438</v>
       </c>
       <c r="O89">
-        <v>0.179997</v>
+        <v>3.54221</v>
       </c>
       <c r="P89">
-        <v>0.2743</v>
+        <v>4.74886</v>
       </c>
       <c r="Q89">
-        <v>0.3464</v>
+        <v>5.37871</v>
       </c>
       <c r="R89">
-        <v>2.34596</v>
+        <v>6.73422</v>
       </c>
       <c r="S89">
-        <v>0.916388</v>
+        <v>5.71514</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ENSMUSG00000051920</t>
+          <t>ENSMUSG00000025216</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Rspo2</t>
+          <t>Lbx1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>chr15:43020793-43170826</t>
+          <t>chr19:45232683-45235812</t>
         </is>
       </c>
       <c r="D90">
-        <v>20.3003</v>
+        <v>1.09651</v>
       </c>
       <c r="E90">
-        <v>10.1726</v>
+        <v>0.457937</v>
       </c>
       <c r="F90">
-        <v>57.5621</v>
+        <v>0.168698</v>
       </c>
       <c r="G90">
-        <v>63.8234</v>
+        <v>0.112703</v>
       </c>
       <c r="H90">
-        <v>29.6186</v>
+        <v>0.0284173</v>
       </c>
       <c r="I90">
-        <v>51.0409</v>
+        <v>0.0229635</v>
       </c>
       <c r="J90">
-        <v>15.9092</v>
+        <v>0.0149168</v>
       </c>
       <c r="K90">
-        <v>21.8334</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>9.33165</v>
+        <v>9.273020000000001</v>
       </c>
       <c r="M90">
-        <v>9.98817</v>
+        <v>4.14366</v>
       </c>
       <c r="N90">
-        <v>0.767166</v>
+        <v>0.0339556</v>
       </c>
       <c r="O90">
-        <v>0.622036</v>
+        <v>0.121781</v>
       </c>
       <c r="P90">
-        <v>0.676982</v>
+        <v>0.0312005</v>
       </c>
       <c r="Q90">
-        <v>0.494581</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>0.201296</v>
+        <v>0</v>
       </c>
       <c r="S90">
-        <v>0.149915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ENSMUSG00000004558</t>
+          <t>ENSMUSG00000019987</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ndrg2</t>
+          <t>Arg1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>chr14:51905270-51914158</t>
+          <t>chr10:24915220-24927484</t>
         </is>
       </c>
       <c r="D91">
-        <v>1.71169</v>
+        <v>3.97635</v>
       </c>
       <c r="E91">
-        <v>1.5177</v>
+        <v>3.98471</v>
       </c>
       <c r="F91">
-        <v>5.59686</v>
+        <v>13.8547</v>
       </c>
       <c r="G91">
-        <v>5.7276</v>
+        <v>11.0313</v>
       </c>
       <c r="H91">
-        <v>8.616849999999999</v>
+        <v>3.94283</v>
       </c>
       <c r="I91">
-        <v>8.858000000000001</v>
+        <v>8.38049</v>
       </c>
       <c r="J91">
-        <v>12.6865</v>
+        <v>4.11426</v>
       </c>
       <c r="K91">
-        <v>10.5037</v>
+        <v>4.24281</v>
       </c>
       <c r="L91">
-        <v>1.19787</v>
+        <v>8.63133</v>
       </c>
       <c r="M91">
-        <v>0.36351</v>
+        <v>7.13873</v>
       </c>
       <c r="N91">
-        <v>2.94247</v>
+        <v>0.285531</v>
       </c>
       <c r="O91">
-        <v>3.16193</v>
+        <v>0.45058</v>
       </c>
       <c r="P91">
-        <v>8.900399999999999</v>
+        <v>0.131181</v>
       </c>
       <c r="Q91">
-        <v>4.6804</v>
+        <v>0.124205</v>
       </c>
       <c r="R91">
-        <v>18.6543</v>
+        <v>0.569945</v>
       </c>
       <c r="S91">
-        <v>14.164</v>
+        <v>0.117653</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036905</t>
+          <t>ENSMUSG00000032291</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>C1qb</t>
+          <t>Crabp1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>chr4:136880128-136886187</t>
+          <t>chr9:54764747-54773110</t>
         </is>
       </c>
       <c r="D92">
-        <v>0.0782325</v>
+        <v>182.545</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>141.897</v>
       </c>
       <c r="F92">
-        <v>0.256769</v>
+        <v>148.652</v>
       </c>
       <c r="G92">
-        <v>0.205848</v>
+        <v>107.094</v>
       </c>
       <c r="H92">
-        <v>2.2059</v>
+        <v>40.9714</v>
       </c>
       <c r="I92">
-        <v>0.262139</v>
+        <v>42.461</v>
       </c>
       <c r="J92">
-        <v>0.136226</v>
+        <v>16.0318</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>14.8532</v>
       </c>
       <c r="L92">
-        <v>0.133152</v>
+        <v>410.447</v>
       </c>
       <c r="M92">
-        <v>0.138444</v>
+        <v>348.02</v>
       </c>
       <c r="N92">
-        <v>2.24819</v>
+        <v>294.369</v>
       </c>
       <c r="O92">
-        <v>3.55886</v>
+        <v>158.192</v>
       </c>
       <c r="P92">
-        <v>6.76718</v>
+        <v>64.6978</v>
       </c>
       <c r="Q92">
-        <v>3.7657</v>
+        <v>66.1065</v>
       </c>
       <c r="R92">
-        <v>14.1288</v>
+        <v>69.9606</v>
       </c>
       <c r="S92">
-        <v>5.69664</v>
+        <v>40.3739</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ENSMUSG00000079259</t>
+          <t>ENSMUSG00000038692</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Trim71</t>
+          <t>Hoxb4</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>chr9:114507132-114564369</t>
+          <t>chr11:96318266-96321638</t>
         </is>
       </c>
       <c r="D93">
-        <v>14.1284</v>
+        <v>4.51127</v>
       </c>
       <c r="E93">
-        <v>20.7273</v>
+        <v>5.16545</v>
       </c>
       <c r="F93">
-        <v>7.98547</v>
+        <v>0.925408</v>
       </c>
       <c r="G93">
-        <v>9.98377</v>
+        <v>0.93827</v>
       </c>
       <c r="H93">
-        <v>3.02566</v>
+        <v>0.467657</v>
       </c>
       <c r="I93">
-        <v>6.02688</v>
+        <v>0.377905</v>
       </c>
       <c r="J93">
-        <v>0.853674</v>
+        <v>0.317683</v>
       </c>
       <c r="K93">
-        <v>2.54089</v>
+        <v>0.396029</v>
       </c>
       <c r="L93">
-        <v>11.1268</v>
+        <v>6.08326</v>
       </c>
       <c r="M93">
-        <v>24.7279</v>
+        <v>6.75063</v>
       </c>
       <c r="N93">
-        <v>8.2761</v>
+        <v>0.230094</v>
       </c>
       <c r="O93">
-        <v>11.1964</v>
+        <v>0.2122</v>
       </c>
       <c r="P93">
-        <v>1.91014</v>
+        <v>0.166119</v>
       </c>
       <c r="Q93">
-        <v>4.78352</v>
+        <v>0.142986</v>
       </c>
       <c r="R93">
-        <v>0.349061</v>
+        <v>0.0570544</v>
       </c>
       <c r="S93">
-        <v>1.7504</v>
+        <v>0.09029570000000001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036887</t>
+          <t>ENSMUSG00000022371</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>C1qa</t>
+          <t>Col14a1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>chr4:136895916-136898803</t>
+          <t>chr15:55307749-55520803</t>
         </is>
       </c>
       <c r="D94">
+        <v>1.81717</v>
+      </c>
+      <c r="E94">
+        <v>0.934819</v>
+      </c>
+      <c r="F94">
         <v>0</v>
       </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0.13431</v>
-      </c>
       <c r="G94">
-        <v>0.323023</v>
+        <v>0.00985844</v>
       </c>
       <c r="H94">
-        <v>2.81676</v>
+        <v>0.0685278</v>
       </c>
       <c r="I94">
-        <v>0.109695</v>
+        <v>0.0200877</v>
       </c>
       <c r="J94">
-        <v>0.534424</v>
+        <v>0.0516478</v>
       </c>
       <c r="K94">
-        <v>0.0542848</v>
+        <v>0.039764</v>
       </c>
       <c r="L94">
-        <v>0.174121</v>
+        <v>7.41844</v>
       </c>
       <c r="M94">
-        <v>0.0482779</v>
+        <v>6.91069</v>
       </c>
       <c r="N94">
-        <v>2.02754</v>
+        <v>0.0341054</v>
       </c>
       <c r="O94">
-        <v>2.96686</v>
+        <v>0.0281093</v>
       </c>
       <c r="P94">
-        <v>6.25978</v>
+        <v>0.0525961</v>
       </c>
       <c r="Q94">
-        <v>2.93992</v>
+        <v>0.0215347</v>
       </c>
       <c r="R94">
-        <v>17.1388</v>
+        <v>0.474624</v>
       </c>
       <c r="S94">
-        <v>4.28865</v>
+        <v>0.151912</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ENSMUSG00000026494</t>
+          <t>ENSMUSG00000071192</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Kif26b</t>
+          <t>Wfikkn1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>chr1:178529124-178939200</t>
+          <t>chr17:25877629-25880305</t>
         </is>
       </c>
       <c r="D95">
-        <v>4.14155</v>
+        <v>14.5227</v>
       </c>
       <c r="E95">
-        <v>3.03279</v>
+        <v>14.7109</v>
       </c>
       <c r="F95">
-        <v>12.6018</v>
+        <v>0.493766</v>
       </c>
       <c r="G95">
-        <v>9.93224</v>
+        <v>0.36743</v>
       </c>
       <c r="H95">
-        <v>27.6078</v>
+        <v>0.267254</v>
       </c>
       <c r="I95">
-        <v>13.3284</v>
+        <v>0.305951</v>
       </c>
       <c r="J95">
-        <v>14.3854</v>
+        <v>0.0561132</v>
       </c>
       <c r="K95">
-        <v>9.169729999999999</v>
+        <v>0.227991</v>
       </c>
       <c r="L95">
-        <v>5.17605</v>
+        <v>8.446429999999999</v>
       </c>
       <c r="M95">
-        <v>6.22444</v>
+        <v>5.9799</v>
       </c>
       <c r="N95">
-        <v>26.9914</v>
+        <v>0.22708</v>
       </c>
       <c r="O95">
-        <v>21.7004</v>
+        <v>0.213783</v>
       </c>
       <c r="P95">
-        <v>49.0825</v>
+        <v>0.312999</v>
       </c>
       <c r="Q95">
-        <v>33.0876</v>
+        <v>0.453099</v>
       </c>
       <c r="R95">
-        <v>55.7948</v>
+        <v>0.0554271</v>
       </c>
       <c r="S95">
-        <v>55.1572</v>
+        <v>0.233921</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ENSMUSG00000052396</t>
+          <t>ENSMUSG00000038236</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Mogat2</t>
+          <t>Hoxa7</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>chr7:99219083-99238619</t>
+          <t>chr6:52214497-52221854</t>
         </is>
       </c>
       <c r="D96">
-        <v>13.6761</v>
+        <v>6.98099</v>
       </c>
       <c r="E96">
-        <v>5.97377</v>
+        <v>3.93885</v>
       </c>
       <c r="F96">
-        <v>3.57053</v>
+        <v>2.08586</v>
       </c>
       <c r="G96">
-        <v>3.20846</v>
+        <v>2.84339</v>
       </c>
       <c r="H96">
-        <v>4.42171</v>
+        <v>2.8952</v>
       </c>
       <c r="I96">
-        <v>0.576823</v>
+        <v>0.596251</v>
       </c>
       <c r="J96">
-        <v>0.249798</v>
+        <v>0.608644</v>
       </c>
       <c r="K96">
-        <v>0.222019</v>
+        <v>0.449626</v>
       </c>
       <c r="L96">
-        <v>85.6396</v>
+        <v>28.9137</v>
       </c>
       <c r="M96">
-        <v>55.8223</v>
+        <v>28.2473</v>
       </c>
       <c r="N96">
-        <v>51.7605</v>
+        <v>16.3118</v>
       </c>
       <c r="O96">
-        <v>26.5115</v>
+        <v>14.7831</v>
       </c>
       <c r="P96">
-        <v>15.1085</v>
+        <v>4.79931</v>
       </c>
       <c r="Q96">
-        <v>13.192</v>
+        <v>7.76966</v>
       </c>
       <c r="R96">
-        <v>5.96299</v>
+        <v>2.40154</v>
       </c>
       <c r="S96">
-        <v>7.02906</v>
+        <v>3.67475</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ENSMUSG00000046743</t>
+          <t>ENSMUSG00000052217</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Fat4</t>
+          <t>Hbb-bh1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>chr3:38886939-39011985</t>
+          <t>chr7:103841636-103843164</t>
         </is>
       </c>
       <c r="D97">
-        <v>0.433273</v>
+        <v>33.047</v>
       </c>
       <c r="E97">
-        <v>0.362279</v>
+        <v>240.348</v>
       </c>
       <c r="F97">
-        <v>5.19397</v>
+        <v>22.217</v>
       </c>
       <c r="G97">
-        <v>7.79261</v>
+        <v>54.5293</v>
       </c>
       <c r="H97">
-        <v>4.33155</v>
+        <v>1.78487</v>
       </c>
       <c r="I97">
-        <v>7.4254</v>
+        <v>4.55959</v>
       </c>
       <c r="J97">
-        <v>2.05175</v>
+        <v>1.99472</v>
       </c>
       <c r="K97">
-        <v>3.23478</v>
+        <v>0.644687</v>
       </c>
       <c r="L97">
-        <v>0.501362</v>
+        <v>1259.15</v>
       </c>
       <c r="M97">
-        <v>0.610899</v>
+        <v>836.026</v>
       </c>
       <c r="N97">
-        <v>2.22004</v>
+        <v>1328.48</v>
       </c>
       <c r="O97">
-        <v>3.20362</v>
+        <v>1041.84</v>
       </c>
       <c r="P97">
-        <v>9.30707</v>
+        <v>400.596</v>
       </c>
       <c r="Q97">
-        <v>6.01293</v>
+        <v>513.7430000000001</v>
       </c>
       <c r="R97">
-        <v>11.1648</v>
+        <v>70.0363</v>
       </c>
       <c r="S97">
-        <v>12.9592</v>
+        <v>151.851</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031654</t>
+          <t>ENSMUSG00000026208</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Cbln1</t>
+          <t>Des</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>chr8:87468404-87472609</t>
+          <t>chr1:75360328-75368579</t>
         </is>
       </c>
       <c r="D98">
-        <v>0.400786</v>
+        <v>1.20873</v>
       </c>
       <c r="E98">
-        <v>0.0353266</v>
+        <v>0.800332</v>
       </c>
       <c r="F98">
-        <v>4.24799</v>
+        <v>0.115325</v>
       </c>
       <c r="G98">
-        <v>4.07584</v>
+        <v>0.0554729</v>
       </c>
       <c r="H98">
-        <v>4.72716</v>
+        <v>0.034968</v>
       </c>
       <c r="I98">
-        <v>6.11979</v>
+        <v>0.037676</v>
       </c>
       <c r="J98">
-        <v>0.675782</v>
+        <v>0.0489477</v>
       </c>
       <c r="K98">
-        <v>0.677748</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>0.631161</v>
+        <v>6.92529</v>
       </c>
       <c r="M98">
-        <v>0.598139</v>
+        <v>4.84183</v>
       </c>
       <c r="N98">
-        <v>26.8589</v>
+        <v>0.408544</v>
       </c>
       <c r="O98">
-        <v>32.2917</v>
+        <v>0.219784</v>
       </c>
       <c r="P98">
-        <v>23.6376</v>
+        <v>0.127976</v>
       </c>
       <c r="Q98">
-        <v>28.1916</v>
+        <v>0.0605849</v>
       </c>
       <c r="R98">
-        <v>5.23102</v>
+        <v>0.0483493</v>
       </c>
       <c r="S98">
-        <v>11.7938</v>
+        <v>0.057389</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ENSMUSG00000039410</t>
+          <t>ENSMUSG00000066687</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Prdm16</t>
+          <t>Zbtb16</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>chr4:154316124-154636873</t>
+          <t>chr9:48654296-48836222</t>
         </is>
       </c>
       <c r="D99">
-        <v>0.42576</v>
+        <v>1.19392</v>
       </c>
       <c r="E99">
-        <v>0.364364</v>
+        <v>1.28992</v>
       </c>
       <c r="F99">
-        <v>1.19573</v>
+        <v>0.48818</v>
       </c>
       <c r="G99">
-        <v>1.76974</v>
+        <v>0.262778</v>
       </c>
       <c r="H99">
-        <v>3.80232</v>
+        <v>0.110426</v>
       </c>
       <c r="I99">
-        <v>0.895626</v>
+        <v>0.126026</v>
       </c>
       <c r="J99">
-        <v>0.5643899999999999</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>0.721757</v>
+        <v>0.0674226</v>
       </c>
       <c r="L99">
-        <v>3.46774</v>
+        <v>7.95304</v>
       </c>
       <c r="M99">
-        <v>2.91647</v>
+        <v>11.9458</v>
       </c>
       <c r="N99">
-        <v>11.3775</v>
+        <v>3.88289</v>
       </c>
       <c r="O99">
-        <v>11.2808</v>
+        <v>2.44331</v>
       </c>
       <c r="P99">
-        <v>27.5</v>
+        <v>0.689977</v>
       </c>
       <c r="Q99">
-        <v>20.3657</v>
+        <v>0.764486</v>
       </c>
       <c r="R99">
-        <v>28.8126</v>
+        <v>0.5383559999999999</v>
       </c>
       <c r="S99">
-        <v>38.2466</v>
+        <v>1.43811</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ENSMUSG00000059325</t>
+          <t>ENSMUSG00000047786</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Hopx</t>
+          <t>Lix1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>chr5:77086987-77115121</t>
+          <t>chr17:17402671-17459387</t>
         </is>
       </c>
       <c r="D100">
-        <v>1.45303</v>
+        <v>5.40859</v>
       </c>
       <c r="E100">
-        <v>1.33308</v>
+        <v>4.30967</v>
       </c>
       <c r="F100">
-        <v>0.313748</v>
+        <v>3.94481</v>
       </c>
       <c r="G100">
-        <v>1.40857</v>
+        <v>5.81083</v>
       </c>
       <c r="H100">
-        <v>0.824485</v>
+        <v>6.83665</v>
       </c>
       <c r="I100">
-        <v>0.973749</v>
+        <v>1.44617</v>
       </c>
       <c r="J100">
-        <v>2.27522</v>
+        <v>0.249718</v>
       </c>
       <c r="K100">
-        <v>1.54899</v>
+        <v>0.3986</v>
       </c>
       <c r="L100">
-        <v>6.68607</v>
+        <v>46.3685</v>
       </c>
       <c r="M100">
-        <v>9.04649</v>
+        <v>45.4333</v>
       </c>
       <c r="N100">
-        <v>0.32839</v>
+        <v>55.1203</v>
       </c>
       <c r="O100">
-        <v>0.217432</v>
+        <v>52.045</v>
       </c>
       <c r="P100">
-        <v>0.243717</v>
+        <v>11.0858</v>
       </c>
       <c r="Q100">
-        <v>0.0549383</v>
+        <v>26.5114</v>
       </c>
       <c r="R100">
-        <v>0.197307</v>
+        <v>3.3476</v>
       </c>
       <c r="S100">
-        <v>0.104084</v>
+        <v>6.70277</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036896</t>
+          <t>ENSMUSG00000000942</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>C1qc</t>
+          <t>Hoxa4</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>chr4:136889803-136893065</t>
+          <t>chr6:52189670-52191753</t>
         </is>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>2.13593</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>2.57525</v>
       </c>
       <c r="F101">
-        <v>0.40639</v>
+        <v>0.306705</v>
       </c>
       <c r="G101">
-        <v>0.0930851</v>
+        <v>0.386385</v>
       </c>
       <c r="H101">
-        <v>2.25907</v>
+        <v>0.33213</v>
       </c>
       <c r="I101">
-        <v>0.0948319</v>
+        <v>0.178925</v>
       </c>
       <c r="J101">
-        <v>0.308009</v>
+        <v>0.325438</v>
       </c>
       <c r="K101">
-        <v>0.093859</v>
+        <v>0.17709</v>
       </c>
       <c r="L101">
-        <v>0.21074</v>
+        <v>7.72513</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>7.15022</v>
       </c>
       <c r="N101">
-        <v>2.45395</v>
+        <v>0.546783</v>
       </c>
       <c r="O101">
-        <v>2.76603</v>
+        <v>1.13866</v>
       </c>
       <c r="P101">
-        <v>7.27991</v>
+        <v>0.486211</v>
       </c>
       <c r="Q101">
-        <v>2.23659</v>
+        <v>0.613806</v>
       </c>
       <c r="R101">
-        <v>15.6381</v>
+        <v>0.321459</v>
       </c>
       <c r="S101">
-        <v>4.04461</v>
+        <v>0.363392</v>
       </c>
     </row>
   </sheetData>
